--- a/Others/TestCuts/Analyse_seuil_func_test13&15.xlsx
+++ b/Others/TestCuts/Analyse_seuil_func_test13&15.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PFE\MyWork\PFE\Others\TestCuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tim_nbcuts" sheetId="2" r:id="rId1"/>
-    <sheet name="pre_cut2_seuil_func" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="pre_cut2_seuil_func" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="158">
   <si>
     <t>Sc(N/M)</t>
   </si>
@@ -476,6 +477,24 @@
   </si>
   <si>
     <t>Sc8-20</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>min2</t>
+  </si>
+  <si>
+    <t>max2</t>
+  </si>
+  <si>
+    <t>avg2</t>
   </si>
 </sst>
 </file>
@@ -996,23 +1015,23 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1069,6 +1088,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3642407" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="571500"/>
+          <a:ext cx="3642407" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Pour les 3 premiers sc,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> on a le même nb de coupes ajoutées,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>mais quand même le temps varie beaucoup...</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1336,34 +1423,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F117" sqref="A117:F117"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1375,13 +1462,13 @@
       <c r="C2" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>133</v>
       </c>
       <c r="G2" t="s">
@@ -1404,14 +1491,14 @@
       <c r="C3">
         <v>0.09</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="5">
         <f>(C3-B3)/B3*100</f>
         <v>12.499999999999993</v>
       </c>
       <c r="E3">
         <v>0.08</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <f>(E3-B3)/B3*100</f>
         <v>0</v>
       </c>
@@ -1435,14 +1522,14 @@
       <c r="C4">
         <v>0.09</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D67" si="0">(C4-B4)/B4*100</f>
         <v>12.499999999999993</v>
       </c>
       <c r="E4">
         <v>0.08</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <f t="shared" ref="F4:F67" si="1">(E4-B4)/B4*100</f>
         <v>0</v>
       </c>
@@ -1466,14 +1553,14 @@
       <c r="C5">
         <v>0.05</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>-16.666666666666661</v>
       </c>
       <c r="E5">
         <v>0.05</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>-16.666666666666661</v>
       </c>
@@ -1497,14 +1584,14 @@
       <c r="C6">
         <v>0.05</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>-16.666666666666661</v>
       </c>
       <c r="E6">
         <v>0.05</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>-16.666666666666661</v>
       </c>
@@ -1528,14 +1615,14 @@
       <c r="C7">
         <v>0.08</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
         <v>0.08</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1559,14 +1646,14 @@
       <c r="C8">
         <v>0.09</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>-18.181818181818183</v>
       </c>
       <c r="E8">
         <v>0.09</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>-18.181818181818183</v>
       </c>
@@ -1590,14 +1677,14 @@
       <c r="C9">
         <v>0.08</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
         <v>0.08</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1621,14 +1708,14 @@
       <c r="C10">
         <v>0.09</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
         <v>0.09</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1652,14 +1739,14 @@
       <c r="C11">
         <v>0.03</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>-40.000000000000007</v>
       </c>
       <c r="E11">
         <v>0.05</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1683,14 +1770,14 @@
       <c r="C12">
         <v>0.05</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
         <v>0.05</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1714,14 +1801,14 @@
       <c r="C13">
         <v>0.05</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
         <v>0.03</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>-40.000000000000007</v>
       </c>
@@ -1745,14 +1832,14 @@
       <c r="C14">
         <v>0.09</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>-18.181818181818183</v>
       </c>
       <c r="E14">
         <v>0.09</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>-18.181818181818183</v>
       </c>
@@ -1776,14 +1863,14 @@
       <c r="C15">
         <v>0.05</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
         <v>0.05</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1807,14 +1894,14 @@
       <c r="C16">
         <v>0.03</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>-40.000000000000007</v>
       </c>
       <c r="E16">
         <v>0.05</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1838,14 +1925,14 @@
       <c r="C17">
         <v>0.05</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
         <v>0.05</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1869,14 +1956,14 @@
       <c r="C18">
         <v>0.08</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
         <v>0.08</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1900,14 +1987,14 @@
       <c r="C19">
         <v>0.06</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
         <v>0.06</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1931,14 +2018,14 @@
       <c r="C20">
         <v>0.01</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
         <v>0.01</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1962,14 +2049,14 @@
       <c r="C21">
         <v>0.3</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>-3.2258064516129057</v>
       </c>
       <c r="E21">
         <v>0.3</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="5">
         <f t="shared" si="1"/>
         <v>-3.2258064516129057</v>
       </c>
@@ -1993,14 +2080,14 @@
       <c r="C22">
         <v>0.59</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>-3.2786885245901667</v>
       </c>
       <c r="E22">
         <v>0.62</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="5">
         <f t="shared" si="1"/>
         <v>1.6393442622950833</v>
       </c>
@@ -2024,14 +2111,14 @@
       <c r="C23">
         <v>0.67</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>15.517241379310359</v>
       </c>
       <c r="E23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2055,14 +2142,14 @@
       <c r="C24">
         <v>0.22</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>9.9999999999999947</v>
       </c>
       <c r="E24">
         <v>0.2</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2086,14 +2173,14 @@
       <c r="C25">
         <v>0.64</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
         <v>0.61</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="5">
         <f t="shared" si="1"/>
         <v>-4.6875000000000044</v>
       </c>
@@ -2117,14 +2204,14 @@
       <c r="C26">
         <v>0.25</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
         <v>0.25</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2148,14 +2235,14 @@
       <c r="C27">
         <v>0.74</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>-8.6419753086419817</v>
       </c>
       <c r="E27">
         <v>0.97</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="5">
         <f t="shared" si="1"/>
         <v>19.753086419753075</v>
       </c>
@@ -2179,14 +2266,14 @@
       <c r="C28">
         <v>0.3</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
         <v>3.4482758620689689</v>
       </c>
       <c r="E28">
         <v>0.3</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="5">
         <f t="shared" si="1"/>
         <v>3.4482758620689689</v>
       </c>
@@ -2210,14 +2297,14 @@
       <c r="C29">
         <v>0.25</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>8.6956521739130395</v>
       </c>
       <c r="E29">
         <v>0.27</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="5">
         <f t="shared" si="1"/>
         <v>17.39130434782609</v>
       </c>
@@ -2241,14 +2328,14 @@
       <c r="C30">
         <v>0.26</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="5">
         <f t="shared" si="0"/>
         <v>4.0000000000000036</v>
       </c>
       <c r="E30">
         <v>0.25</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2272,14 +2359,14 @@
       <c r="C31">
         <v>0.2</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
         <v>0.2</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2303,14 +2390,14 @@
       <c r="C32">
         <v>1.72</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="5">
         <f t="shared" si="0"/>
         <v>-6.5217391304347876</v>
       </c>
       <c r="E32">
         <v>1.59</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="5">
         <f t="shared" si="1"/>
         <v>-13.586956521739129</v>
       </c>
@@ -2334,14 +2421,14 @@
       <c r="C33">
         <v>1.89</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="5">
         <f t="shared" si="0"/>
         <v>9.8837209302325526</v>
       </c>
       <c r="E33">
         <v>1.77</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="5">
         <f t="shared" si="1"/>
         <v>2.9069767441860495</v>
       </c>
@@ -2365,14 +2452,14 @@
       <c r="C34">
         <v>2.14</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="5">
         <f t="shared" si="0"/>
         <v>11.458333333333345</v>
       </c>
       <c r="E34">
         <v>1.86</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="5">
         <f t="shared" si="1"/>
         <v>-3.1249999999999911</v>
       </c>
@@ -2396,14 +2483,14 @@
       <c r="C35">
         <v>0.97</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
         <v>1.01</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="5">
         <f t="shared" si="1"/>
         <v>4.1237113402061896</v>
       </c>
@@ -2427,14 +2514,14 @@
       <c r="C36">
         <v>1.9</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="5">
         <f t="shared" si="0"/>
         <v>-14.027149321266972</v>
       </c>
       <c r="E36">
         <v>2.39</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="5">
         <f t="shared" si="1"/>
         <v>8.1447963800905043</v>
       </c>
@@ -2458,14 +2545,14 @@
       <c r="C37">
         <v>1.01</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="5">
         <f t="shared" si="0"/>
         <v>-1.9417475728155356</v>
       </c>
       <c r="E37">
         <v>1.08</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="5">
         <f t="shared" si="1"/>
         <v>4.854368932038839</v>
       </c>
@@ -2489,14 +2576,14 @@
       <c r="C38">
         <v>1.58</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="5">
         <f t="shared" si="0"/>
         <v>-8.1395348837209252</v>
       </c>
       <c r="E38">
         <v>1.64</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="5">
         <f t="shared" si="1"/>
         <v>-4.6511627906976782</v>
       </c>
@@ -2520,14 +2607,14 @@
       <c r="C39">
         <v>1.29</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="5">
         <f t="shared" si="0"/>
         <v>-5.1470588235294157</v>
       </c>
       <c r="E39">
         <v>1.37</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="5">
         <f t="shared" si="1"/>
         <v>0.73529411764705943</v>
       </c>
@@ -2551,14 +2638,14 @@
       <c r="C40">
         <v>0.73</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="5">
         <f t="shared" si="0"/>
         <v>-2.6666666666666687</v>
       </c>
       <c r="E40">
         <v>0.75</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2582,14 +2669,14 @@
       <c r="C41">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="5">
         <f t="shared" si="0"/>
         <v>-4.9586776859504171</v>
       </c>
       <c r="E41">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="5">
         <f t="shared" si="1"/>
         <v>-4.9586776859504171</v>
       </c>
@@ -2613,14 +2700,14 @@
       <c r="C42">
         <v>2.06</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="5">
         <f t="shared" si="0"/>
         <v>-7.6233183856502214</v>
       </c>
       <c r="E42">
         <v>2.25</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="5">
         <f t="shared" si="1"/>
         <v>0.89686098654708601</v>
       </c>
@@ -2644,14 +2731,14 @@
       <c r="C43">
         <v>2.31</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="5">
         <f t="shared" si="0"/>
         <v>-9.765625</v>
       </c>
       <c r="E43">
         <v>2.36</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="5">
         <f t="shared" si="1"/>
         <v>-7.8125000000000071</v>
       </c>
@@ -2675,14 +2762,14 @@
       <c r="C44">
         <v>2.37</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="5">
         <f t="shared" si="0"/>
         <v>-2.4691358024691379</v>
       </c>
       <c r="E44">
         <v>3.32</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="5">
         <f t="shared" si="1"/>
         <v>36.625514403292165</v>
       </c>
@@ -2706,14 +2793,14 @@
       <c r="C45">
         <v>1.36</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="5">
         <f t="shared" si="0"/>
         <v>2.2556390977443628</v>
       </c>
       <c r="E45">
         <v>1.33</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2737,14 +2824,14 @@
       <c r="C46">
         <v>0.84</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="5">
         <f t="shared" si="0"/>
         <v>1.2048192771084349</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="5">
         <f t="shared" si="1"/>
         <v>20.481927710843379</v>
       </c>
@@ -2768,14 +2855,14 @@
       <c r="C47">
         <v>26.05</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="5">
         <f t="shared" si="0"/>
         <v>-6.764495347172514</v>
       </c>
       <c r="E47">
         <v>26.36</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="5">
         <f t="shared" si="1"/>
         <v>-5.6549749463135353</v>
       </c>
@@ -2799,14 +2886,14 @@
       <c r="C48">
         <v>2.11</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="5">
         <f t="shared" si="0"/>
         <v>-11.715481171548127</v>
       </c>
       <c r="E48">
         <v>2.17</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="5">
         <f t="shared" si="1"/>
         <v>-9.2050209205020987</v>
       </c>
@@ -2830,14 +2917,14 @@
       <c r="C49">
         <v>1.23</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="5">
         <f t="shared" si="0"/>
         <v>12.844036697247695</v>
       </c>
       <c r="E49">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2861,14 +2948,14 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="5">
         <f t="shared" si="0"/>
         <v>3.092783505154642</v>
       </c>
       <c r="E50">
         <v>0.95</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="5">
         <f t="shared" si="1"/>
         <v>-2.0618556701030948</v>
       </c>
@@ -2892,14 +2979,14 @@
       <c r="C51">
         <v>80.7</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="5">
         <f t="shared" si="0"/>
         <v>-37.86093786093786</v>
       </c>
       <c r="E51">
         <v>97.16</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="5">
         <f t="shared" si="1"/>
         <v>-25.186725186725191</v>
       </c>
@@ -2923,14 +3010,14 @@
       <c r="C52">
         <v>506.13</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="5">
         <f t="shared" si="0"/>
         <v>-3.867119983285535</v>
       </c>
       <c r="E52">
         <v>511.14</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="5">
         <f t="shared" si="1"/>
         <v>-2.9155349579289296</v>
       </c>
@@ -2954,14 +3041,14 @@
       <c r="C53">
         <v>99.2</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="5">
         <f t="shared" si="0"/>
         <v>9.4681085853012554</v>
       </c>
       <c r="E53">
         <v>110.12</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="5">
         <f t="shared" si="1"/>
         <v>21.518428602957403</v>
       </c>
@@ -2985,14 +3072,14 @@
       <c r="C54">
         <v>8.6300000000000008</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="5">
         <f t="shared" si="0"/>
         <v>0.3488372093023388</v>
       </c>
       <c r="E54">
         <v>10.58</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="5">
         <f t="shared" si="1"/>
         <v>23.023255813953494</v>
       </c>
@@ -3016,14 +3103,14 @@
       <c r="C55">
         <v>7.07</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="5">
         <f t="shared" si="0"/>
         <v>-1.5320334261838362</v>
       </c>
       <c r="E55">
         <v>6.44</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="5">
         <f t="shared" si="1"/>
         <v>-10.306406685236761</v>
       </c>
@@ -3047,14 +3134,14 @@
       <c r="C56">
         <v>1102.95</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="5">
         <f t="shared" si="0"/>
         <v>0.20350501040237748</v>
       </c>
       <c r="E56">
         <v>1066.17</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="5">
         <f t="shared" si="1"/>
         <v>-3.1379745800437862</v>
       </c>
@@ -3078,14 +3165,14 @@
       <c r="C57">
         <v>5.71</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="5">
         <f t="shared" si="0"/>
         <v>-13.876319758672699</v>
       </c>
       <c r="E57">
         <v>7.27</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="5">
         <f t="shared" si="1"/>
         <v>9.6530920060331766</v>
       </c>
@@ -3109,14 +3196,14 @@
       <c r="C58">
         <v>2.93</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="5">
         <f t="shared" si="0"/>
         <v>-20.163487738419615</v>
       </c>
       <c r="E58">
         <v>3.62</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="5">
         <f t="shared" si="1"/>
         <v>-1.362397820163483</v>
       </c>
@@ -3140,14 +3227,14 @@
       <c r="C59">
         <v>1.42</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="5">
         <f t="shared" si="0"/>
         <v>1.4285714285714299</v>
       </c>
       <c r="E59">
         <v>1.39</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="5">
         <f t="shared" si="1"/>
         <v>-0.71428571428571497</v>
       </c>
@@ -3171,14 +3258,14 @@
       <c r="C60">
         <v>70.28</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="5">
         <f t="shared" si="0"/>
         <v>-37.289194253591504</v>
       </c>
       <c r="E60">
         <v>64.16</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="5">
         <f t="shared" si="1"/>
         <v>-42.750066922459176</v>
       </c>
@@ -3202,14 +3289,14 @@
       <c r="C61">
         <v>13.98</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="5">
         <f t="shared" si="0"/>
         <v>5.6689342403628116</v>
       </c>
       <c r="E61">
         <v>12.28</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="5">
         <f t="shared" si="1"/>
         <v>-7.180650037792903</v>
       </c>
@@ -3233,14 +3320,14 @@
       <c r="C62">
         <v>25.72</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="5">
         <f t="shared" si="0"/>
         <v>39.403794037940379</v>
       </c>
       <c r="E62">
         <v>16.27</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="5">
         <f t="shared" si="1"/>
         <v>-11.815718157181571</v>
       </c>
@@ -3264,14 +3351,14 @@
       <c r="C63">
         <v>29.03</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="5">
         <f t="shared" si="0"/>
         <v>1.149825783972132</v>
       </c>
       <c r="E63">
         <v>20.54</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="5">
         <f t="shared" si="1"/>
         <v>-28.432055749128921</v>
       </c>
@@ -3295,14 +3382,14 @@
       <c r="C64">
         <v>7.27</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="5">
         <f t="shared" si="0"/>
         <v>-42.52964426877471</v>
       </c>
       <c r="E64">
         <v>10.15</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="5">
         <f t="shared" si="1"/>
         <v>-19.762845849802371</v>
       </c>
@@ -3326,14 +3413,14 @@
       <c r="C65">
         <v>6.6</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="5">
         <f t="shared" si="0"/>
         <v>-4.8991354466858894</v>
       </c>
       <c r="E65">
         <v>7.71</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="5">
         <f t="shared" si="1"/>
         <v>11.095100864553308</v>
       </c>
@@ -3357,14 +3444,14 @@
       <c r="C66">
         <v>15.02</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="5">
         <f t="shared" si="0"/>
         <v>-13.727742676622634</v>
       </c>
       <c r="E66">
         <v>16.18</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="5">
         <f t="shared" si="1"/>
         <v>-7.0649052268811046</v>
       </c>
@@ -3388,14 +3475,14 @@
       <c r="C67">
         <v>110.59</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="5">
         <f t="shared" si="0"/>
         <v>-18.600029442072728</v>
       </c>
       <c r="E67">
         <v>142.75</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="5">
         <f t="shared" si="1"/>
         <v>5.0713970263506445</v>
       </c>
@@ -3419,14 +3506,14 @@
       <c r="C68">
         <v>15.21</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="5">
         <f t="shared" ref="D68:D131" si="2">(C68-B68)/B68*100</f>
         <v>5.6250000000000036</v>
       </c>
       <c r="E68">
         <v>12.29</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="5">
         <f t="shared" ref="F68:F131" si="3">(E68-B68)/B68*100</f>
         <v>-14.652777777777787</v>
       </c>
@@ -3450,14 +3537,14 @@
       <c r="C69">
         <v>11.17</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="5">
         <f t="shared" si="2"/>
         <v>5.5765595463137982</v>
       </c>
       <c r="E69">
         <v>12.51</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="5">
         <f t="shared" si="3"/>
         <v>18.241965973534967</v>
       </c>
@@ -3481,14 +3568,14 @@
       <c r="C70">
         <v>7.77</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="5">
         <f t="shared" si="2"/>
         <v>-5.359317904993925</v>
       </c>
       <c r="E70">
         <v>8.49</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="5">
         <f t="shared" si="3"/>
         <v>3.4104750304506619</v>
       </c>
@@ -3512,14 +3599,14 @@
       <c r="C71">
         <v>1802.33</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="5">
         <f t="shared" si="2"/>
         <v>-0.21370952114673028</v>
       </c>
       <c r="E71">
         <v>1807.46</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="5">
         <f t="shared" si="3"/>
         <v>7.0313754366926065E-2</v>
       </c>
@@ -3543,14 +3630,14 @@
       <c r="C72">
         <v>1681.54</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="5">
         <f t="shared" si="2"/>
         <v>-7.1649404853918668</v>
       </c>
       <c r="E72">
         <v>1227.6099999999999</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="5">
         <f t="shared" si="3"/>
         <v>-32.225669677362369</v>
       </c>
@@ -3574,14 +3661,14 @@
       <c r="C73">
         <v>1802.1</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="5">
         <f t="shared" si="2"/>
         <v>-0.32632743362832362</v>
       </c>
       <c r="E73">
         <v>1808.87</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="5">
         <f t="shared" si="3"/>
         <v>4.8119469026542634E-2</v>
       </c>
@@ -3605,14 +3692,14 @@
       <c r="C74">
         <v>91.62</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="5">
         <f t="shared" si="2"/>
         <v>-7.799134547650195</v>
       </c>
       <c r="E74">
         <v>123</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="5">
         <f t="shared" si="3"/>
         <v>23.77981282077085</v>
       </c>
@@ -3636,14 +3723,14 @@
       <c r="C75">
         <v>40.31</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="5">
         <f t="shared" si="2"/>
         <v>-33.349867724867714</v>
       </c>
       <c r="E75">
         <v>43.63</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="5">
         <f t="shared" si="3"/>
         <v>-27.860449735449727</v>
       </c>
@@ -3667,14 +3754,14 @@
       <c r="C76">
         <v>1803.47</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="5">
         <f t="shared" si="2"/>
         <v>-4.0461146214389655E-2</v>
       </c>
       <c r="E76">
         <v>1804.22</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="5">
         <f t="shared" si="3"/>
         <v>1.1085245538178588E-3</v>
       </c>
@@ -3698,14 +3785,14 @@
       <c r="C77">
         <v>1801.43</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="5">
         <f t="shared" si="2"/>
         <v>-0.33747710964686112</v>
       </c>
       <c r="E77">
         <v>1806.56</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="5">
         <f t="shared" si="3"/>
         <v>-5.3664392845486783E-2</v>
       </c>
@@ -3729,14 +3816,14 @@
       <c r="C78">
         <v>233.38</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="5">
         <f t="shared" si="2"/>
         <v>-56.466264992818374</v>
       </c>
       <c r="E78">
         <v>375.3</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="5">
         <f t="shared" si="3"/>
         <v>-29.993098173814097</v>
       </c>
@@ -3760,14 +3847,14 @@
       <c r="C79">
         <v>1801.6</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="5">
         <f t="shared" si="2"/>
         <v>48.071438551503633</v>
       </c>
       <c r="E79">
         <v>1269.74</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="5">
         <f t="shared" si="3"/>
         <v>4.3584749036335673</v>
       </c>
@@ -3791,14 +3878,14 @@
       <c r="C80">
         <v>536.61</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="5">
         <f t="shared" si="2"/>
         <v>-16.966855445176858</v>
       </c>
       <c r="E80">
         <v>1803.41</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="5">
         <f t="shared" si="3"/>
         <v>179.05332219230652</v>
       </c>
@@ -3822,14 +3909,14 @@
       <c r="C81">
         <v>1008.96</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="5">
         <f t="shared" si="2"/>
         <v>-44.07157348588153</v>
       </c>
       <c r="E81">
         <v>1802.02</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="5">
         <f t="shared" si="3"/>
         <v>-0.11086351592554405</v>
       </c>
@@ -3853,14 +3940,14 @@
       <c r="C82">
         <v>919.01</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="5">
         <f t="shared" si="2"/>
         <v>16.553158568910192</v>
       </c>
       <c r="E82">
         <v>514.39</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82" s="5">
         <f t="shared" si="3"/>
         <v>-34.762647592233257</v>
       </c>
@@ -3884,14 +3971,14 @@
       <c r="C83">
         <v>79.53</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="5">
         <f t="shared" si="2"/>
         <v>-17.104440275171978</v>
       </c>
       <c r="E83">
         <v>111.68</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="5">
         <f t="shared" si="3"/>
         <v>16.406087137794465</v>
       </c>
@@ -3915,14 +4002,14 @@
       <c r="C84">
         <v>1608.75</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="5">
         <f t="shared" si="2"/>
         <v>-10.785585945298463</v>
       </c>
       <c r="E84">
         <v>1540.58</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="5">
         <f t="shared" si="3"/>
         <v>-14.566003416073295</v>
       </c>
@@ -3946,14 +4033,14 @@
       <c r="C85">
         <v>218.87</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="5">
         <f t="shared" si="2"/>
         <v>-17.77986476333583</v>
       </c>
       <c r="E85">
         <v>178.55</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="5">
         <f t="shared" si="3"/>
         <v>-32.926371149511638</v>
       </c>
@@ -3977,14 +4064,14 @@
       <c r="C86">
         <v>1802.53</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="5">
         <f t="shared" si="2"/>
         <v>-0.3593085797361017</v>
       </c>
       <c r="E86">
         <v>1224.43</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="5">
         <f t="shared" si="3"/>
         <v>-32.315660879034617</v>
       </c>
@@ -4008,14 +4095,14 @@
       <c r="C87">
         <v>326.24</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="5">
         <f t="shared" si="2"/>
         <v>22.205573868744395</v>
       </c>
       <c r="E87">
         <v>261.42</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F87" s="5">
         <f t="shared" si="3"/>
         <v>-2.0752172610128725</v>
       </c>
@@ -4039,14 +4126,14 @@
       <c r="C88">
         <v>1806.73</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="5">
         <f t="shared" si="2"/>
         <v>184.49752779264955</v>
       </c>
       <c r="E88">
         <v>1530.88</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="5">
         <f t="shared" si="3"/>
         <v>141.0606871791642</v>
       </c>
@@ -4070,14 +4157,14 @@
       <c r="C89">
         <v>1806.95</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="5">
         <f t="shared" si="2"/>
         <v>23.864656809317193</v>
       </c>
       <c r="E89">
         <v>1293.8599999999999</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="5">
         <f t="shared" si="3"/>
         <v>-11.307161316415439</v>
       </c>
@@ -4101,14 +4188,14 @@
       <c r="C90">
         <v>1809.45</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="5">
         <f t="shared" si="2"/>
         <v>4.2572483800339574E-2</v>
       </c>
       <c r="E90">
         <v>1809.59</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F90" s="5">
         <f t="shared" si="3"/>
         <v>5.0312935400394457E-2</v>
       </c>
@@ -4132,14 +4219,14 @@
       <c r="C91">
         <v>155.72</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="5">
         <f t="shared" si="2"/>
         <v>-9.9103268730112806</v>
       </c>
       <c r="E91">
         <v>164.38</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="5">
         <f t="shared" si="3"/>
         <v>-4.9002024877061032</v>
       </c>
@@ -4163,14 +4250,14 @@
       <c r="C92">
         <v>1803.51</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="5">
         <f t="shared" si="2"/>
         <v>-8.0887770987885466E-2</v>
       </c>
       <c r="E92">
         <v>1805.04</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F92" s="5">
         <f t="shared" si="3"/>
         <v>3.8781808007854052E-3</v>
       </c>
@@ -4194,14 +4281,14 @@
       <c r="C93">
         <v>1007.48</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="5">
         <f t="shared" si="2"/>
         <v>17.890450391415762</v>
       </c>
       <c r="E93">
         <v>883.76</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F93" s="5">
         <f t="shared" si="3"/>
         <v>3.4133327092523849</v>
       </c>
@@ -4225,14 +4312,14 @@
       <c r="C94">
         <v>1813.67</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="5">
         <f t="shared" si="2"/>
         <v>46.06934321266057</v>
       </c>
       <c r="E94">
         <v>1268.58</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="5">
         <f t="shared" si="3"/>
         <v>2.1688881729955973</v>
       </c>
@@ -4256,14 +4343,14 @@
       <c r="C95">
         <v>1804.36</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="5">
         <f t="shared" si="2"/>
         <v>29.252148997134665</v>
       </c>
       <c r="E95">
         <v>1804.48</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="5">
         <f t="shared" si="3"/>
         <v>29.260744985673355</v>
       </c>
@@ -4287,14 +4374,14 @@
       <c r="C96">
         <v>177.64</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="5">
         <f t="shared" si="2"/>
         <v>-50.449093444909344</v>
       </c>
       <c r="E96">
         <v>251.45</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F96" s="5">
         <f t="shared" si="3"/>
         <v>-29.860529986053002</v>
       </c>
@@ -4318,14 +4405,14 @@
       <c r="C97">
         <v>245.76</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="5">
         <f t="shared" si="2"/>
         <v>51.320731482051599</v>
       </c>
       <c r="E97">
         <v>185.07</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F97" s="5">
         <f t="shared" si="3"/>
         <v>13.952342836032262</v>
       </c>
@@ -4349,14 +4436,14 @@
       <c r="C98">
         <v>985.83</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="5">
         <f t="shared" si="2"/>
         <v>-45.625579137801694</v>
       </c>
       <c r="E98">
         <v>1816.31</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F98" s="5">
         <f t="shared" si="3"/>
         <v>0.18036005824471507</v>
       </c>
@@ -4380,14 +4467,14 @@
       <c r="C99">
         <v>868.58</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="5">
         <f t="shared" si="2"/>
         <v>-46.744901838158654</v>
       </c>
       <c r="E99">
         <v>1813.69</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F99" s="5">
         <f t="shared" si="3"/>
         <v>11.202467228292194</v>
       </c>
@@ -4411,14 +4498,14 @@
       <c r="C100">
         <v>1808.32</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="5">
         <f t="shared" si="2"/>
         <v>-7.9568561577228733E-2</v>
       </c>
       <c r="E100">
         <v>1811.88</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F100" s="5">
         <f t="shared" si="3"/>
         <v>0.1171426045442555</v>
       </c>
@@ -4442,14 +4529,14 @@
       <c r="C101">
         <v>663.83</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="5">
         <f t="shared" si="2"/>
         <v>-49.772632693981009</v>
       </c>
       <c r="E101">
         <v>998.95</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="5">
         <f t="shared" si="3"/>
         <v>-24.416449135550263</v>
       </c>
@@ -4473,14 +4560,14 @@
       <c r="C102">
         <v>1545.01</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="5">
         <f t="shared" si="2"/>
         <v>-14.389649249182693</v>
       </c>
       <c r="E102">
         <v>1804.58</v>
       </c>
-      <c r="F102" s="10">
+      <c r="F102" s="5">
         <f t="shared" si="3"/>
         <v>-6.6493045935678077E-3</v>
       </c>
@@ -4504,14 +4591,14 @@
       <c r="C103">
         <v>204.49</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="5">
         <f t="shared" si="2"/>
         <v>-40.909090909090907</v>
       </c>
       <c r="E103">
         <v>250.47</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F103" s="5">
         <f t="shared" si="3"/>
         <v>-27.622377622377627</v>
       </c>
@@ -4535,14 +4622,14 @@
       <c r="C104">
         <v>1804.89</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="5">
         <f t="shared" si="2"/>
         <v>-1.3849341325326567E-2</v>
       </c>
       <c r="E104">
         <v>1807.82</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F104" s="5">
         <f t="shared" si="3"/>
         <v>0.14846493900749172</v>
       </c>
@@ -4566,14 +4653,14 @@
       <c r="C105">
         <v>171.91</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="5">
         <f t="shared" si="2"/>
         <v>-37.047751574630148</v>
       </c>
       <c r="E105">
         <v>92.53</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F105" s="5">
         <f t="shared" si="3"/>
         <v>-66.116156437673936</v>
       </c>
@@ -4597,14 +4684,14 @@
       <c r="C106">
         <v>1825.53</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="5">
         <f t="shared" si="2"/>
         <v>-0.55834577127978302</v>
       </c>
       <c r="E106">
         <v>1846.14</v>
       </c>
-      <c r="F106" s="10">
+      <c r="F106" s="5">
         <f t="shared" si="3"/>
         <v>0.56433777467889001</v>
       </c>
@@ -4628,14 +4715,14 @@
       <c r="C107">
         <v>1803.61</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="5">
         <f t="shared" si="2"/>
         <v>-7.257939410057912E-2</v>
       </c>
       <c r="E107">
         <v>1804.9</v>
       </c>
-      <c r="F107" s="10">
+      <c r="F107" s="5">
         <f t="shared" si="3"/>
         <v>-1.1080823526794434E-3</v>
       </c>
@@ -4659,14 +4746,14 @@
       <c r="C108">
         <v>1806.26</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="5">
         <f t="shared" si="2"/>
         <v>8.3051419902492613E-3</v>
       </c>
       <c r="E108">
         <v>1806.76</v>
       </c>
-      <c r="F108" s="10">
+      <c r="F108" s="5">
         <f t="shared" si="3"/>
         <v>3.5988948624396687E-2</v>
       </c>
@@ -4690,14 +4777,14 @@
       <c r="C109">
         <v>1815.2</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="5">
         <f t="shared" si="2"/>
         <v>3.747547560787777E-2</v>
       </c>
       <c r="E109">
         <v>1816.99</v>
       </c>
-      <c r="F109" s="10">
+      <c r="F109" s="5">
         <f t="shared" si="3"/>
         <v>0.13612415404625067</v>
       </c>
@@ -4721,14 +4808,14 @@
       <c r="C110">
         <v>785.29</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="5">
         <f t="shared" si="2"/>
         <v>-48.346039242512944</v>
       </c>
       <c r="E110">
         <v>1539.14</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F110" s="5">
         <f t="shared" si="3"/>
         <v>1.2398950200290824</v>
       </c>
@@ -4752,14 +4839,14 @@
       <c r="C111">
         <v>1811.21</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111" s="5">
         <f t="shared" si="2"/>
         <v>13.47722573773574</v>
       </c>
       <c r="E111">
         <v>1813.26</v>
       </c>
-      <c r="F111" s="10">
+      <c r="F111" s="5">
         <f t="shared" si="3"/>
         <v>13.605663805525975</v>
       </c>
@@ -4783,14 +4870,14 @@
       <c r="C112">
         <v>1805.92</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="5">
         <f t="shared" si="2"/>
         <v>-0.4317022742935866</v>
       </c>
       <c r="E112">
         <v>1811.36</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F112" s="5">
         <f t="shared" si="3"/>
         <v>-0.13177119228119089</v>
       </c>
@@ -4814,14 +4901,14 @@
       <c r="C113">
         <v>1525.95</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="5">
         <f t="shared" si="2"/>
         <v>-15.818479717988183</v>
       </c>
       <c r="E113">
         <v>1815.24</v>
       </c>
-      <c r="F113" s="10">
+      <c r="F113" s="5">
         <f t="shared" si="3"/>
         <v>0.14067490856130693</v>
       </c>
@@ -4845,14 +4932,14 @@
       <c r="C114">
         <v>1807.23</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="5">
         <f t="shared" si="2"/>
         <v>-5.5330238528607982E-3</v>
       </c>
       <c r="E114">
         <v>1807.13</v>
       </c>
-      <c r="F114" s="10">
+      <c r="F114" s="5">
         <f t="shared" si="3"/>
         <v>-1.1066047705721596E-2</v>
       </c>
@@ -4876,14 +4963,14 @@
       <c r="C115">
         <v>1332.72</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="5">
         <f t="shared" si="2"/>
         <v>143.46364632809647</v>
       </c>
       <c r="E115">
         <v>1309.1600000000001</v>
       </c>
-      <c r="F115" s="10">
+      <c r="F115" s="5">
         <f t="shared" si="3"/>
         <v>139.15966386554624</v>
       </c>
@@ -4907,14 +4994,14 @@
       <c r="C116">
         <v>1819.18</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116" s="5">
         <f t="shared" si="2"/>
         <v>9.3457430140610961E-3</v>
       </c>
       <c r="E116">
         <v>1817.15</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F116" s="5">
         <f t="shared" si="3"/>
         <v>-0.10225342356556039</v>
       </c>
@@ -4938,14 +5025,14 @@
       <c r="C117">
         <v>1826.14</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117" s="5">
         <f t="shared" si="2"/>
         <v>-4.5430412103095681E-2</v>
       </c>
       <c r="E117">
         <v>1826.49</v>
       </c>
-      <c r="F117" s="10">
+      <c r="F117" s="5">
         <f t="shared" si="3"/>
         <v>-2.6273009409022489E-2</v>
       </c>
@@ -4966,14 +5053,14 @@
       <c r="C118">
         <v>1273.1199999999999</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="5">
         <f t="shared" si="2"/>
         <v>-29.945579503997628</v>
       </c>
       <c r="E118">
         <v>1317.9</v>
       </c>
-      <c r="F118" s="10">
+      <c r="F118" s="5">
         <f t="shared" si="3"/>
         <v>-27.481525094506772</v>
       </c>
@@ -4994,14 +5081,14 @@
       <c r="C119">
         <v>1804.22</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="5">
         <f t="shared" si="2"/>
         <v>-0.34741592148068579</v>
       </c>
       <c r="E119">
         <v>1810.02</v>
       </c>
-      <c r="F119" s="10">
+      <c r="F119" s="5">
         <f t="shared" si="3"/>
         <v>-2.7064197380848993E-2</v>
       </c>
@@ -5022,14 +5109,14 @@
       <c r="C120">
         <v>1805.28</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="5">
         <f t="shared" si="2"/>
         <v>-0.25526272169733788</v>
       </c>
       <c r="E120">
         <v>1808.47</v>
       </c>
-      <c r="F120" s="10">
+      <c r="F120" s="5">
         <f t="shared" si="3"/>
         <v>-7.9009890049177509E-2</v>
       </c>
@@ -5050,14 +5137,14 @@
       <c r="C121">
         <v>1332.02</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D121" s="5">
         <f t="shared" si="2"/>
         <v>-26.222271455869734</v>
       </c>
       <c r="E121">
         <v>1805.42</v>
       </c>
-      <c r="F121" s="10">
+      <c r="F121" s="5">
         <f t="shared" si="3"/>
         <v>-1.6616356033106823E-3</v>
       </c>
@@ -5078,14 +5165,14 @@
       <c r="C122">
         <v>1815.13</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="5">
         <f t="shared" si="2"/>
         <v>0.11914151916469007</v>
       </c>
       <c r="E122">
         <v>1812.84</v>
       </c>
-      <c r="F122" s="10">
+      <c r="F122" s="5">
         <f t="shared" si="3"/>
         <v>-7.1705543941769099E-3</v>
       </c>
@@ -5106,14 +5193,14 @@
       <c r="C123">
         <v>1820.32</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D123" s="5">
         <f t="shared" si="2"/>
         <v>-4.7222130706472028E-2</v>
       </c>
       <c r="E123">
         <v>1818.88</v>
       </c>
-      <c r="F123" s="10">
+      <c r="F123" s="5">
         <f t="shared" si="3"/>
         <v>-0.12629174491263656</v>
       </c>
@@ -5134,14 +5221,14 @@
       <c r="C124">
         <v>1813.18</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="5">
         <f t="shared" si="2"/>
         <v>-2.5363357667455302E-2</v>
       </c>
       <c r="E124">
         <v>1813.8</v>
       </c>
-      <c r="F124" s="10">
+      <c r="F124" s="5">
         <f t="shared" si="3"/>
         <v>8.8220374495409492E-3</v>
       </c>
@@ -5162,14 +5249,14 @@
       <c r="C125">
         <v>1816.58</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D125" s="5">
         <f t="shared" si="2"/>
         <v>3.524345518023022E-2</v>
       </c>
       <c r="E125">
         <v>1815.88</v>
       </c>
-      <c r="F125" s="10">
+      <c r="F125" s="5">
         <f t="shared" si="3"/>
         <v>-3.3040739231442349E-3</v>
       </c>
@@ -5190,14 +5277,14 @@
       <c r="C126">
         <v>1812.46</v>
       </c>
-      <c r="D126" s="10">
+      <c r="D126" s="5">
         <f t="shared" si="2"/>
         <v>-2.1513087127995847E-2</v>
       </c>
       <c r="E126">
         <v>1812.78</v>
       </c>
-      <c r="F126" s="10">
+      <c r="F126" s="5">
         <f t="shared" si="3"/>
         <v>-3.8613233306636695E-3</v>
       </c>
@@ -5218,14 +5305,14 @@
       <c r="C127">
         <v>1813.8</v>
       </c>
-      <c r="D127" s="10">
+      <c r="D127" s="5">
         <f t="shared" si="2"/>
         <v>-0.10574317626066093</v>
       </c>
       <c r="E127">
         <v>1816.05</v>
       </c>
-      <c r="F127" s="10">
+      <c r="F127" s="5">
         <f t="shared" si="3"/>
         <v>1.8174608419796401E-2</v>
       </c>
@@ -5246,14 +5333,14 @@
       <c r="C128">
         <v>1840.71</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D128" s="5">
         <f t="shared" si="2"/>
         <v>0.22705740141788761</v>
       </c>
       <c r="E128">
         <v>1826.21</v>
       </c>
-      <c r="F128" s="10">
+      <c r="F128" s="5">
         <f t="shared" si="3"/>
         <v>-0.56247073300880612</v>
       </c>
@@ -5274,14 +5361,14 @@
       <c r="C129">
         <v>1812.11</v>
       </c>
-      <c r="D129" s="10">
+      <c r="D129" s="5">
         <f t="shared" si="2"/>
         <v>-1.7655854295071459E-2</v>
       </c>
       <c r="E129">
         <v>1812.42</v>
       </c>
-      <c r="F129" s="10">
+      <c r="F129" s="5">
         <f t="shared" si="3"/>
         <v>-5.517454467201991E-4</v>
       </c>
@@ -5302,14 +5389,14 @@
       <c r="C130">
         <v>1834.23</v>
       </c>
-      <c r="D130" s="10">
+      <c r="D130" s="5">
         <f t="shared" si="2"/>
         <v>-7.7743419564069631</v>
       </c>
       <c r="E130">
         <v>1849.83</v>
       </c>
-      <c r="F130" s="10">
+      <c r="F130" s="5">
         <f t="shared" si="3"/>
         <v>-6.989969077607662</v>
       </c>
@@ -5330,14 +5417,14 @@
       <c r="C131">
         <v>1826.7</v>
       </c>
-      <c r="D131" s="10">
+      <c r="D131" s="5">
         <f t="shared" si="2"/>
         <v>-0.19887015527169119</v>
       </c>
       <c r="E131">
         <v>17.63</v>
       </c>
-      <c r="F131" s="10">
+      <c r="F131" s="5">
         <f t="shared" si="3"/>
         <v>-99.03679097872525</v>
       </c>
@@ -5358,14 +5445,14 @@
       <c r="C132">
         <v>1813.64</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D132" s="5">
         <f t="shared" ref="D132:D134" si="4">(C132-B132)/B132*100</f>
         <v>3.088666799039054E-2</v>
       </c>
       <c r="E132">
         <v>1814.48</v>
       </c>
-      <c r="F132" s="10">
+      <c r="F132" s="5">
         <f t="shared" ref="F132:F134" si="5">(E132-B132)/B132*100</f>
         <v>7.7216669975957539E-2</v>
       </c>
@@ -5386,14 +5473,14 @@
       <c r="C133">
         <v>1818.96</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D133" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E133">
         <v>1818.13</v>
       </c>
-      <c r="F133" s="10">
+      <c r="F133" s="5">
         <f t="shared" si="5"/>
         <v>-4.5630470158768047E-2</v>
       </c>
@@ -5414,14 +5501,14 @@
       <c r="C134">
         <v>1815.84</v>
       </c>
-      <c r="D134" s="10">
+      <c r="D134" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E134">
         <v>1814.48</v>
       </c>
-      <c r="F134" s="10">
+      <c r="F134" s="5">
         <f t="shared" si="5"/>
         <v>-7.4896466649038471E-2</v>
       </c>
@@ -5438,15 +5525,1146 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>129.87</v>
+      </c>
+      <c r="C3">
+        <v>80.7</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D19" si="0">(C3-B3)/B3*100</f>
+        <v>-37.86093786093786</v>
+      </c>
+      <c r="E3">
+        <v>97.16</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F19" si="1">(E3-B3)/B3*100</f>
+        <v>-25.186725186725191</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5">
+        <f>MIN(D3:D22)</f>
+        <v>-42.52964426877471</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
+        <f>MIN(F3:F22)</f>
+        <v>-42.750066922459176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>526.49</v>
+      </c>
+      <c r="C4">
+        <v>506.13</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.867119983285535</v>
+      </c>
+      <c r="E4">
+        <v>511.14</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.9155349579289296</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
+        <f>MIN(D23:D31)</f>
+        <v>-56.466264992818374</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
+        <f>MIN(F23:F31)</f>
+        <v>-34.762647592233257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>90.62</v>
+      </c>
+      <c r="C5">
+        <v>99.2</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>9.4681085853012554</v>
+      </c>
+      <c r="E5">
+        <v>110.12</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>21.518428602957403</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5">
+        <f>MIN(D32:D43)</f>
+        <v>-50.449093444909344</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
+        <f>MIN(F32:F43)</f>
+        <v>-66.116156437673936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>8.6</v>
+      </c>
+      <c r="C6">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.3488372093023388</v>
+      </c>
+      <c r="E6">
+        <v>10.58</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>23.023255813953494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>7.18</v>
+      </c>
+      <c r="C7">
+        <v>7.07</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.5320334261838362</v>
+      </c>
+      <c r="E7">
+        <v>6.44</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>-10.306406685236761</v>
+      </c>
+      <c r="I7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>1100.71</v>
+      </c>
+      <c r="C8">
+        <v>1102.95</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.20350501040237748</v>
+      </c>
+      <c r="E8">
+        <v>1066.17</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.1379745800437862</v>
+      </c>
+      <c r="I8" s="5">
+        <f>MAX(D3:D22)</f>
+        <v>39.403794037940379</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
+        <f t="shared" ref="J8:K8" si="2">MAX(F3:F22)</f>
+        <v>23.023255813953494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>6.63</v>
+      </c>
+      <c r="C9">
+        <v>5.71</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>-13.876319758672699</v>
+      </c>
+      <c r="E9">
+        <v>7.27</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>9.6530920060331766</v>
+      </c>
+      <c r="I9" s="5">
+        <f>MAX(D23:D31)</f>
+        <v>48.071438551503633</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <f t="shared" ref="J9:K9" si="3">MAX(F23:F31)</f>
+        <v>179.05332219230652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>3.67</v>
+      </c>
+      <c r="C10">
+        <v>2.93</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>-20.163487738419615</v>
+      </c>
+      <c r="E10">
+        <v>3.62</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.362397820163483</v>
+      </c>
+      <c r="I10" s="5">
+        <f>MAX(D32:D43)</f>
+        <v>184.49752779264955</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
+        <f t="shared" ref="J10:K10" si="4">MAX(F32:F43)</f>
+        <v>141.0606871791642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>1.4</v>
+      </c>
+      <c r="C11">
+        <v>1.42</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714299</v>
+      </c>
+      <c r="E11">
+        <v>1.39</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.71428571428571497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>112.07</v>
+      </c>
+      <c r="C12">
+        <v>70.28</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>-37.289194253591504</v>
+      </c>
+      <c r="E12">
+        <v>64.16</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>-42.750066922459176</v>
+      </c>
+      <c r="I12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>13.23</v>
+      </c>
+      <c r="C13">
+        <v>13.98</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6689342403628116</v>
+      </c>
+      <c r="E13">
+        <v>12.28</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.180650037792903</v>
+      </c>
+      <c r="I13" s="5">
+        <f>AVERAGE(D3:D22)</f>
+        <v>-6.5415913459037203</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5">
+        <f t="shared" ref="J13:K13" si="5">AVERAGE(F3:F22)</f>
+        <v>-4.1634314673787038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>18.45</v>
+      </c>
+      <c r="C14">
+        <v>25.72</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>39.403794037940379</v>
+      </c>
+      <c r="E14">
+        <v>16.27</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>-11.815718157181571</v>
+      </c>
+      <c r="I14" s="5">
+        <f>AVERAGE(D23:D31)</f>
+        <v>-6.9595840844291939</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5">
+        <f t="shared" ref="J14:K14" si="6">AVERAGE(F23:F31)</f>
+        <v>10.664434793609312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>28.7</v>
+      </c>
+      <c r="C15">
+        <v>29.03</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>1.149825783972132</v>
+      </c>
+      <c r="E15">
+        <v>20.54</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="1"/>
+        <v>-28.432055749128921</v>
+      </c>
+      <c r="I15" s="5">
+        <f>AVERAGE(D32:D43)</f>
+        <v>4.80017240746706</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5">
+        <f t="shared" ref="J15:K15" si="7">AVERAGE(F32:F43)</f>
+        <v>2.8883373873370388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>12.65</v>
+      </c>
+      <c r="C16">
+        <v>7.27</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>-42.52964426877471</v>
+      </c>
+      <c r="E16">
+        <v>10.15</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>-19.762845849802371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>6.94</v>
+      </c>
+      <c r="C17">
+        <v>6.6</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.8991354466858894</v>
+      </c>
+      <c r="E17">
+        <v>7.71</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="1"/>
+        <v>11.095100864553308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>17.41</v>
+      </c>
+      <c r="C18">
+        <v>15.02</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>-13.727742676622634</v>
+      </c>
+      <c r="E18">
+        <v>16.18</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.0649052268811046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>135.86000000000001</v>
+      </c>
+      <c r="C19">
+        <v>110.59</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>-18.600029442072728</v>
+      </c>
+      <c r="E19">
+        <v>142.75</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0713970263506445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>14.4</v>
+      </c>
+      <c r="C20">
+        <v>15.21</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:D47" si="8">(C20-B20)/B20*100</f>
+        <v>5.6250000000000036</v>
+      </c>
+      <c r="E20">
+        <v>12.29</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F47" si="9">(E20-B20)/B20*100</f>
+        <v>-14.652777777777787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>10.58</v>
+      </c>
+      <c r="C21">
+        <v>11.17</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="8"/>
+        <v>5.5765595463137982</v>
+      </c>
+      <c r="E21">
+        <v>12.51</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="9"/>
+        <v>18.241965973534967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C22">
+        <v>7.77</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="8"/>
+        <v>-5.359317904993925</v>
+      </c>
+      <c r="E22">
+        <v>8.49</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="9"/>
+        <v>3.4104750304506619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>99.37</v>
+      </c>
+      <c r="C23">
+        <v>91.62</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="8"/>
+        <v>-7.799134547650195</v>
+      </c>
+      <c r="E23">
+        <v>123</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="9"/>
+        <v>23.77981282077085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>60.48</v>
+      </c>
+      <c r="C24">
+        <v>40.31</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="8"/>
+        <v>-33.349867724867714</v>
+      </c>
+      <c r="E24">
+        <v>43.63</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="9"/>
+        <v>-27.860449735449727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>536.09</v>
+      </c>
+      <c r="C25">
+        <v>233.38</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="8"/>
+        <v>-56.466264992818374</v>
+      </c>
+      <c r="E25">
+        <v>375.3</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="9"/>
+        <v>-29.993098173814097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>1216.71</v>
+      </c>
+      <c r="C26">
+        <v>1801.6</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="8"/>
+        <v>48.071438551503633</v>
+      </c>
+      <c r="E26">
+        <v>1269.74</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="9"/>
+        <v>4.3584749036335673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>646.26</v>
+      </c>
+      <c r="C27">
+        <v>536.61</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="8"/>
+        <v>-16.966855445176858</v>
+      </c>
+      <c r="E27">
+        <v>1803.41</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="9"/>
+        <v>179.05332219230652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28">
+        <v>788.49</v>
+      </c>
+      <c r="C28">
+        <v>919.01</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="8"/>
+        <v>16.553158568910192</v>
+      </c>
+      <c r="E28">
+        <v>514.39</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="9"/>
+        <v>-34.762647592233257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29">
+        <v>95.94</v>
+      </c>
+      <c r="C29">
+        <v>79.53</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="8"/>
+        <v>-17.104440275171978</v>
+      </c>
+      <c r="E29">
+        <v>111.68</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="9"/>
+        <v>16.406087137794465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30">
+        <v>266.2</v>
+      </c>
+      <c r="C30">
+        <v>218.87</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="8"/>
+        <v>-17.77986476333583</v>
+      </c>
+      <c r="E30">
+        <v>178.55</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="9"/>
+        <v>-32.926371149511638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31">
+        <v>266.95999999999998</v>
+      </c>
+      <c r="C31">
+        <v>326.24</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="8"/>
+        <v>22.205573868744395</v>
+      </c>
+      <c r="E31">
+        <v>261.42</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="9"/>
+        <v>-2.0752172610128725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <v>635.05999999999995</v>
+      </c>
+      <c r="C32">
+        <v>1806.73</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="8"/>
+        <v>184.49752779264955</v>
+      </c>
+      <c r="E32">
+        <v>1530.88</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="9"/>
+        <v>141.0606871791642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33">
+        <v>1458.81</v>
+      </c>
+      <c r="C33">
+        <v>1806.95</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="8"/>
+        <v>23.864656809317193</v>
+      </c>
+      <c r="E33">
+        <v>1293.8599999999999</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="9"/>
+        <v>-11.307161316415439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34">
+        <v>172.85</v>
+      </c>
+      <c r="C34">
+        <v>155.72</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="8"/>
+        <v>-9.9103268730112806</v>
+      </c>
+      <c r="E34">
+        <v>164.38</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="9"/>
+        <v>-4.9002024877061032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35">
+        <v>854.59</v>
+      </c>
+      <c r="C35">
+        <v>1007.48</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="8"/>
+        <v>17.890450391415762</v>
+      </c>
+      <c r="E35">
+        <v>883.76</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="9"/>
+        <v>3.4133327092523849</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>1396</v>
+      </c>
+      <c r="C36">
+        <v>1804.36</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="8"/>
+        <v>29.252148997134665</v>
+      </c>
+      <c r="E36">
+        <v>1804.48</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="9"/>
+        <v>29.260744985673355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37">
+        <v>358.5</v>
+      </c>
+      <c r="C37">
+        <v>177.64</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="8"/>
+        <v>-50.449093444909344</v>
+      </c>
+      <c r="E37">
+        <v>251.45</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="9"/>
+        <v>-29.860529986053002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38">
+        <v>162.41</v>
+      </c>
+      <c r="C38">
+        <v>245.76</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="8"/>
+        <v>51.320731482051599</v>
+      </c>
+      <c r="E38">
+        <v>185.07</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="9"/>
+        <v>13.952342836032262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39">
+        <v>1630.98</v>
+      </c>
+      <c r="C39">
+        <v>868.58</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="8"/>
+        <v>-46.744901838158654</v>
+      </c>
+      <c r="E39">
+        <v>1813.69</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="9"/>
+        <v>11.202467228292194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40">
+        <v>1321.65</v>
+      </c>
+      <c r="C40">
+        <v>663.83</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="8"/>
+        <v>-49.772632693981009</v>
+      </c>
+      <c r="E40">
+        <v>998.95</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="9"/>
+        <v>-24.416449135550263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41">
+        <v>1804.7</v>
+      </c>
+      <c r="C41">
+        <v>1545.01</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="8"/>
+        <v>-14.389649249182693</v>
+      </c>
+      <c r="E41">
+        <v>1804.58</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="9"/>
+        <v>-6.6493045935678077E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42">
+        <v>346.06</v>
+      </c>
+      <c r="C42">
+        <v>204.49</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="8"/>
+        <v>-40.909090909090907</v>
+      </c>
+      <c r="E42">
+        <v>250.47</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="9"/>
+        <v>-27.622377622377627</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43">
+        <v>273.08</v>
+      </c>
+      <c r="C43">
+        <v>171.91</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="8"/>
+        <v>-37.047751574630148</v>
+      </c>
+      <c r="E43">
+        <v>92.53</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="9"/>
+        <v>-66.116156437673936</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45">
+        <v>1520.29</v>
+      </c>
+      <c r="C45">
+        <v>785.29</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="8"/>
+        <v>-48.346039242512944</v>
+      </c>
+      <c r="E45">
+        <v>1539.14</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="9"/>
+        <v>1.2398950200290824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46">
+        <v>1596.1</v>
+      </c>
+      <c r="C46">
+        <v>1811.21</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="8"/>
+        <v>13.47722573773574</v>
+      </c>
+      <c r="E46">
+        <v>1813.26</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="9"/>
+        <v>13.605663805525975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47">
+        <v>547.4</v>
+      </c>
+      <c r="C47">
+        <v>1332.72</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="8"/>
+        <v>143.46364632809647</v>
+      </c>
+      <c r="E47">
+        <v>1309.1600000000001</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="9"/>
+        <v>139.15966386554624</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V134"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A100" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" activeCellId="2" sqref="A41:XFD41 A49:XFD49 A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5463,39 +6681,39 @@
     <col min="16" max="16" width="15.28515625" customWidth="1"/>
     <col min="17" max="18" width="11.42578125" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="5" customWidth="1"/>
     <col min="21" max="21" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="10" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="3"/>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="7" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="8" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5555,13 +6773,13 @@
       <c r="S2" t="s">
         <v>126</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="5" t="s">
         <v>132</v>
       </c>
       <c r="U2" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5623,14 +6841,14 @@
       <c r="S3">
         <v>0.09</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="5">
         <f>(S3-R3)/R3*100</f>
         <v>12.499999999999993</v>
       </c>
       <c r="U3">
         <v>0.08</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="5">
         <f>(U3-R3)/R3*100</f>
         <v>0</v>
       </c>
@@ -5693,14 +6911,14 @@
       <c r="S4">
         <v>0.09</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="5">
         <f t="shared" ref="T4:T67" si="0">(S4-R4)/R4*100</f>
         <v>12.499999999999993</v>
       </c>
       <c r="U4">
         <v>0.08</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="5">
         <f t="shared" ref="V4:V67" si="1">(U4-R4)/R4*100</f>
         <v>0</v>
       </c>
@@ -5763,14 +6981,14 @@
       <c r="S5">
         <v>0.05</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="5">
         <f t="shared" si="0"/>
         <v>-16.666666666666661</v>
       </c>
       <c r="U5">
         <v>0.05</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="5">
         <f t="shared" si="1"/>
         <v>-16.666666666666661</v>
       </c>
@@ -5833,14 +7051,14 @@
       <c r="S6">
         <v>0.05</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="5">
         <f t="shared" si="0"/>
         <v>-16.666666666666661</v>
       </c>
       <c r="U6">
         <v>0.05</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="5">
         <f t="shared" si="1"/>
         <v>-16.666666666666661</v>
       </c>
@@ -5903,14 +7121,14 @@
       <c r="S7">
         <v>0.08</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U7">
         <v>0.08</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5973,14 +7191,14 @@
       <c r="S8">
         <v>0.09</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="5">
         <f t="shared" si="0"/>
         <v>-18.181818181818183</v>
       </c>
       <c r="U8">
         <v>0.09</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="5">
         <f t="shared" si="1"/>
         <v>-18.181818181818183</v>
       </c>
@@ -6043,14 +7261,14 @@
       <c r="S9">
         <v>0.08</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U9">
         <v>0.08</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6113,14 +7331,14 @@
       <c r="S10">
         <v>0.09</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U10">
         <v>0.09</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6183,14 +7401,14 @@
       <c r="S11">
         <v>0.03</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="5">
         <f t="shared" si="0"/>
         <v>-40.000000000000007</v>
       </c>
       <c r="U11">
         <v>0.05</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6253,14 +7471,14 @@
       <c r="S12">
         <v>0.05</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U12">
         <v>0.05</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6323,14 +7541,14 @@
       <c r="S13">
         <v>0.05</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U13">
         <v>0.03</v>
       </c>
-      <c r="V13" s="10">
+      <c r="V13" s="5">
         <f t="shared" si="1"/>
         <v>-40.000000000000007</v>
       </c>
@@ -6393,14 +7611,14 @@
       <c r="S14">
         <v>0.09</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="5">
         <f t="shared" si="0"/>
         <v>-18.181818181818183</v>
       </c>
       <c r="U14">
         <v>0.09</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="5">
         <f t="shared" si="1"/>
         <v>-18.181818181818183</v>
       </c>
@@ -6463,14 +7681,14 @@
       <c r="S15">
         <v>0.05</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U15">
         <v>0.05</v>
       </c>
-      <c r="V15" s="10">
+      <c r="V15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6533,14 +7751,14 @@
       <c r="S16">
         <v>0.03</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T16" s="5">
         <f t="shared" si="0"/>
         <v>-40.000000000000007</v>
       </c>
       <c r="U16">
         <v>0.05</v>
       </c>
-      <c r="V16" s="10">
+      <c r="V16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6603,14 +7821,14 @@
       <c r="S17">
         <v>0.05</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U17">
         <v>0.05</v>
       </c>
-      <c r="V17" s="10">
+      <c r="V17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6673,14 +7891,14 @@
       <c r="S18">
         <v>0.08</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U18">
         <v>0.08</v>
       </c>
-      <c r="V18" s="10">
+      <c r="V18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6743,14 +7961,14 @@
       <c r="S19">
         <v>0.06</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U19">
         <v>0.06</v>
       </c>
-      <c r="V19" s="10">
+      <c r="V19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6813,14 +8031,14 @@
       <c r="S20">
         <v>0.01</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U20">
         <v>0.01</v>
       </c>
-      <c r="V20" s="10">
+      <c r="V20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6883,14 +8101,14 @@
       <c r="S21">
         <v>0.3</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="5">
         <f t="shared" si="0"/>
         <v>-3.2258064516129057</v>
       </c>
       <c r="U21">
         <v>0.3</v>
       </c>
-      <c r="V21" s="10">
+      <c r="V21" s="5">
         <f t="shared" si="1"/>
         <v>-3.2258064516129057</v>
       </c>
@@ -6953,14 +8171,14 @@
       <c r="S22">
         <v>0.59</v>
       </c>
-      <c r="T22" s="10">
+      <c r="T22" s="5">
         <f t="shared" si="0"/>
         <v>-3.2786885245901667</v>
       </c>
       <c r="U22">
         <v>0.62</v>
       </c>
-      <c r="V22" s="10">
+      <c r="V22" s="5">
         <f t="shared" si="1"/>
         <v>1.6393442622950833</v>
       </c>
@@ -7023,14 +8241,14 @@
       <c r="S23">
         <v>0.67</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="5">
         <f t="shared" si="0"/>
         <v>15.517241379310359</v>
       </c>
       <c r="U23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="V23" s="10">
+      <c r="V23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7093,14 +8311,14 @@
       <c r="S24">
         <v>0.22</v>
       </c>
-      <c r="T24" s="10">
+      <c r="T24" s="5">
         <f t="shared" si="0"/>
         <v>9.9999999999999947</v>
       </c>
       <c r="U24">
         <v>0.2</v>
       </c>
-      <c r="V24" s="10">
+      <c r="V24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7163,14 +8381,14 @@
       <c r="S25">
         <v>0.64</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U25">
         <v>0.61</v>
       </c>
-      <c r="V25" s="10">
+      <c r="V25" s="5">
         <f t="shared" si="1"/>
         <v>-4.6875000000000044</v>
       </c>
@@ -7233,14 +8451,14 @@
       <c r="S26">
         <v>0.25</v>
       </c>
-      <c r="T26" s="10">
+      <c r="T26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U26">
         <v>0.25</v>
       </c>
-      <c r="V26" s="10">
+      <c r="V26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7303,14 +8521,14 @@
       <c r="S27">
         <v>0.74</v>
       </c>
-      <c r="T27" s="10">
+      <c r="T27" s="5">
         <f t="shared" si="0"/>
         <v>-8.6419753086419817</v>
       </c>
       <c r="U27">
         <v>0.97</v>
       </c>
-      <c r="V27" s="10">
+      <c r="V27" s="5">
         <f t="shared" si="1"/>
         <v>19.753086419753075</v>
       </c>
@@ -7373,14 +8591,14 @@
       <c r="S28">
         <v>0.3</v>
       </c>
-      <c r="T28" s="10">
+      <c r="T28" s="5">
         <f t="shared" si="0"/>
         <v>3.4482758620689689</v>
       </c>
       <c r="U28">
         <v>0.3</v>
       </c>
-      <c r="V28" s="10">
+      <c r="V28" s="5">
         <f t="shared" si="1"/>
         <v>3.4482758620689689</v>
       </c>
@@ -7443,14 +8661,14 @@
       <c r="S29">
         <v>0.25</v>
       </c>
-      <c r="T29" s="10">
+      <c r="T29" s="5">
         <f t="shared" si="0"/>
         <v>8.6956521739130395</v>
       </c>
       <c r="U29">
         <v>0.27</v>
       </c>
-      <c r="V29" s="10">
+      <c r="V29" s="5">
         <f t="shared" si="1"/>
         <v>17.39130434782609</v>
       </c>
@@ -7513,14 +8731,14 @@
       <c r="S30">
         <v>0.26</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T30" s="5">
         <f t="shared" si="0"/>
         <v>4.0000000000000036</v>
       </c>
       <c r="U30">
         <v>0.25</v>
       </c>
-      <c r="V30" s="10">
+      <c r="V30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7583,14 +8801,14 @@
       <c r="S31">
         <v>0.2</v>
       </c>
-      <c r="T31" s="10">
+      <c r="T31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U31">
         <v>0.2</v>
       </c>
-      <c r="V31" s="10">
+      <c r="V31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7653,14 +8871,14 @@
       <c r="S32">
         <v>1.72</v>
       </c>
-      <c r="T32" s="10">
+      <c r="T32" s="5">
         <f t="shared" si="0"/>
         <v>-6.5217391304347876</v>
       </c>
       <c r="U32">
         <v>1.59</v>
       </c>
-      <c r="V32" s="10">
+      <c r="V32" s="5">
         <f t="shared" si="1"/>
         <v>-13.586956521739129</v>
       </c>
@@ -7723,14 +8941,14 @@
       <c r="S33">
         <v>1.89</v>
       </c>
-      <c r="T33" s="10">
+      <c r="T33" s="5">
         <f t="shared" si="0"/>
         <v>9.8837209302325526</v>
       </c>
       <c r="U33">
         <v>1.77</v>
       </c>
-      <c r="V33" s="10">
+      <c r="V33" s="5">
         <f t="shared" si="1"/>
         <v>2.9069767441860495</v>
       </c>
@@ -7793,14 +9011,14 @@
       <c r="S34">
         <v>2.14</v>
       </c>
-      <c r="T34" s="10">
+      <c r="T34" s="5">
         <f t="shared" si="0"/>
         <v>11.458333333333345</v>
       </c>
       <c r="U34">
         <v>1.86</v>
       </c>
-      <c r="V34" s="10">
+      <c r="V34" s="5">
         <f t="shared" si="1"/>
         <v>-3.1249999999999911</v>
       </c>
@@ -7863,14 +9081,14 @@
       <c r="S35">
         <v>0.97</v>
       </c>
-      <c r="T35" s="10">
+      <c r="T35" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U35">
         <v>1.01</v>
       </c>
-      <c r="V35" s="10">
+      <c r="V35" s="5">
         <f t="shared" si="1"/>
         <v>4.1237113402061896</v>
       </c>
@@ -7933,14 +9151,14 @@
       <c r="S36">
         <v>1.9</v>
       </c>
-      <c r="T36" s="10">
+      <c r="T36" s="5">
         <f t="shared" si="0"/>
         <v>-14.027149321266972</v>
       </c>
       <c r="U36">
         <v>2.39</v>
       </c>
-      <c r="V36" s="10">
+      <c r="V36" s="5">
         <f t="shared" si="1"/>
         <v>8.1447963800905043</v>
       </c>
@@ -8003,14 +9221,14 @@
       <c r="S37">
         <v>1.01</v>
       </c>
-      <c r="T37" s="10">
+      <c r="T37" s="5">
         <f t="shared" si="0"/>
         <v>-1.9417475728155356</v>
       </c>
       <c r="U37">
         <v>1.08</v>
       </c>
-      <c r="V37" s="10">
+      <c r="V37" s="5">
         <f t="shared" si="1"/>
         <v>4.854368932038839</v>
       </c>
@@ -8073,14 +9291,14 @@
       <c r="S38">
         <v>1.58</v>
       </c>
-      <c r="T38" s="10">
+      <c r="T38" s="5">
         <f t="shared" si="0"/>
         <v>-8.1395348837209252</v>
       </c>
       <c r="U38">
         <v>1.64</v>
       </c>
-      <c r="V38" s="10">
+      <c r="V38" s="5">
         <f t="shared" si="1"/>
         <v>-4.6511627906976782</v>
       </c>
@@ -8143,14 +9361,14 @@
       <c r="S39">
         <v>1.29</v>
       </c>
-      <c r="T39" s="10">
+      <c r="T39" s="5">
         <f t="shared" si="0"/>
         <v>-5.1470588235294157</v>
       </c>
       <c r="U39">
         <v>1.37</v>
       </c>
-      <c r="V39" s="10">
+      <c r="V39" s="5">
         <f t="shared" si="1"/>
         <v>0.73529411764705943</v>
       </c>
@@ -8213,14 +9431,14 @@
       <c r="S40">
         <v>0.73</v>
       </c>
-      <c r="T40" s="10">
+      <c r="T40" s="5">
         <f t="shared" si="0"/>
         <v>-2.6666666666666687</v>
       </c>
       <c r="U40">
         <v>0.75</v>
       </c>
-      <c r="V40" s="10">
+      <c r="V40" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8283,14 +9501,14 @@
       <c r="S41">
         <v>1.1499999999999999</v>
       </c>
-      <c r="T41" s="10">
+      <c r="T41" s="5">
         <f t="shared" si="0"/>
         <v>-4.9586776859504171</v>
       </c>
       <c r="U41">
         <v>1.1499999999999999</v>
       </c>
-      <c r="V41" s="10">
+      <c r="V41" s="5">
         <f t="shared" si="1"/>
         <v>-4.9586776859504171</v>
       </c>
@@ -8353,14 +9571,14 @@
       <c r="S42">
         <v>2.06</v>
       </c>
-      <c r="T42" s="10">
+      <c r="T42" s="5">
         <f t="shared" si="0"/>
         <v>-7.6233183856502214</v>
       </c>
       <c r="U42">
         <v>2.25</v>
       </c>
-      <c r="V42" s="10">
+      <c r="V42" s="5">
         <f t="shared" si="1"/>
         <v>0.89686098654708601</v>
       </c>
@@ -8423,14 +9641,14 @@
       <c r="S43">
         <v>2.31</v>
       </c>
-      <c r="T43" s="10">
+      <c r="T43" s="5">
         <f t="shared" si="0"/>
         <v>-9.765625</v>
       </c>
       <c r="U43">
         <v>2.36</v>
       </c>
-      <c r="V43" s="10">
+      <c r="V43" s="5">
         <f t="shared" si="1"/>
         <v>-7.8125000000000071</v>
       </c>
@@ -8493,14 +9711,14 @@
       <c r="S44">
         <v>2.37</v>
       </c>
-      <c r="T44" s="10">
+      <c r="T44" s="5">
         <f t="shared" si="0"/>
         <v>-2.4691358024691379</v>
       </c>
       <c r="U44">
         <v>3.32</v>
       </c>
-      <c r="V44" s="10">
+      <c r="V44" s="5">
         <f t="shared" si="1"/>
         <v>36.625514403292165</v>
       </c>
@@ -8563,14 +9781,14 @@
       <c r="S45">
         <v>1.36</v>
       </c>
-      <c r="T45" s="10">
+      <c r="T45" s="5">
         <f t="shared" si="0"/>
         <v>2.2556390977443628</v>
       </c>
       <c r="U45">
         <v>1.33</v>
       </c>
-      <c r="V45" s="10">
+      <c r="V45" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8633,14 +9851,14 @@
       <c r="S46">
         <v>0.84</v>
       </c>
-      <c r="T46" s="10">
+      <c r="T46" s="5">
         <f t="shared" si="0"/>
         <v>1.2048192771084349</v>
       </c>
       <c r="U46">
         <v>1</v>
       </c>
-      <c r="V46" s="10">
+      <c r="V46" s="5">
         <f t="shared" si="1"/>
         <v>20.481927710843379</v>
       </c>
@@ -8703,14 +9921,14 @@
       <c r="S47">
         <v>26.05</v>
       </c>
-      <c r="T47" s="10">
+      <c r="T47" s="5">
         <f t="shared" si="0"/>
         <v>-6.764495347172514</v>
       </c>
       <c r="U47">
         <v>26.36</v>
       </c>
-      <c r="V47" s="10">
+      <c r="V47" s="5">
         <f t="shared" si="1"/>
         <v>-5.6549749463135353</v>
       </c>
@@ -8773,14 +9991,14 @@
       <c r="S48">
         <v>2.11</v>
       </c>
-      <c r="T48" s="10">
+      <c r="T48" s="5">
         <f t="shared" si="0"/>
         <v>-11.715481171548127</v>
       </c>
       <c r="U48">
         <v>2.17</v>
       </c>
-      <c r="V48" s="10">
+      <c r="V48" s="5">
         <f t="shared" si="1"/>
         <v>-9.2050209205020987</v>
       </c>
@@ -8843,14 +10061,14 @@
       <c r="S49">
         <v>1.23</v>
       </c>
-      <c r="T49" s="10">
+      <c r="T49" s="5">
         <f t="shared" si="0"/>
         <v>12.844036697247695</v>
       </c>
       <c r="U49">
         <v>1.0900000000000001</v>
       </c>
-      <c r="V49" s="10">
+      <c r="V49" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8913,14 +10131,14 @@
       <c r="S50">
         <v>1</v>
       </c>
-      <c r="T50" s="10">
+      <c r="T50" s="5">
         <f t="shared" si="0"/>
         <v>3.092783505154642</v>
       </c>
       <c r="U50">
         <v>0.95</v>
       </c>
-      <c r="V50" s="10">
+      <c r="V50" s="5">
         <f t="shared" si="1"/>
         <v>-2.0618556701030948</v>
       </c>
@@ -8983,14 +10201,14 @@
       <c r="S51">
         <v>80.7</v>
       </c>
-      <c r="T51" s="10">
+      <c r="T51" s="5">
         <f t="shared" si="0"/>
         <v>-37.86093786093786</v>
       </c>
       <c r="U51">
         <v>97.16</v>
       </c>
-      <c r="V51" s="10">
+      <c r="V51" s="5">
         <f t="shared" si="1"/>
         <v>-25.186725186725191</v>
       </c>
@@ -9053,14 +10271,14 @@
       <c r="S52">
         <v>506.13</v>
       </c>
-      <c r="T52" s="10">
+      <c r="T52" s="5">
         <f t="shared" si="0"/>
         <v>-3.867119983285535</v>
       </c>
       <c r="U52">
         <v>511.14</v>
       </c>
-      <c r="V52" s="10">
+      <c r="V52" s="5">
         <f t="shared" si="1"/>
         <v>-2.9155349579289296</v>
       </c>
@@ -9123,14 +10341,14 @@
       <c r="S53">
         <v>99.2</v>
       </c>
-      <c r="T53" s="10">
+      <c r="T53" s="5">
         <f t="shared" si="0"/>
         <v>9.4681085853012554</v>
       </c>
       <c r="U53">
         <v>110.12</v>
       </c>
-      <c r="V53" s="10">
+      <c r="V53" s="5">
         <f t="shared" si="1"/>
         <v>21.518428602957403</v>
       </c>
@@ -9193,14 +10411,14 @@
       <c r="S54">
         <v>8.6300000000000008</v>
       </c>
-      <c r="T54" s="10">
+      <c r="T54" s="5">
         <f t="shared" si="0"/>
         <v>0.3488372093023388</v>
       </c>
       <c r="U54">
         <v>10.58</v>
       </c>
-      <c r="V54" s="10">
+      <c r="V54" s="5">
         <f t="shared" si="1"/>
         <v>23.023255813953494</v>
       </c>
@@ -9263,14 +10481,14 @@
       <c r="S55">
         <v>7.07</v>
       </c>
-      <c r="T55" s="10">
+      <c r="T55" s="5">
         <f t="shared" si="0"/>
         <v>-1.5320334261838362</v>
       </c>
       <c r="U55">
         <v>6.44</v>
       </c>
-      <c r="V55" s="10">
+      <c r="V55" s="5">
         <f t="shared" si="1"/>
         <v>-10.306406685236761</v>
       </c>
@@ -9333,14 +10551,14 @@
       <c r="S56">
         <v>1102.95</v>
       </c>
-      <c r="T56" s="10">
+      <c r="T56" s="5">
         <f t="shared" si="0"/>
         <v>0.20350501040237748</v>
       </c>
       <c r="U56">
         <v>1066.17</v>
       </c>
-      <c r="V56" s="10">
+      <c r="V56" s="5">
         <f t="shared" si="1"/>
         <v>-3.1379745800437862</v>
       </c>
@@ -9403,14 +10621,14 @@
       <c r="S57">
         <v>5.71</v>
       </c>
-      <c r="T57" s="10">
+      <c r="T57" s="5">
         <f t="shared" si="0"/>
         <v>-13.876319758672699</v>
       </c>
       <c r="U57">
         <v>7.27</v>
       </c>
-      <c r="V57" s="10">
+      <c r="V57" s="5">
         <f t="shared" si="1"/>
         <v>9.6530920060331766</v>
       </c>
@@ -9473,14 +10691,14 @@
       <c r="S58">
         <v>2.93</v>
       </c>
-      <c r="T58" s="10">
+      <c r="T58" s="5">
         <f t="shared" si="0"/>
         <v>-20.163487738419615</v>
       </c>
       <c r="U58">
         <v>3.62</v>
       </c>
-      <c r="V58" s="10">
+      <c r="V58" s="5">
         <f t="shared" si="1"/>
         <v>-1.362397820163483</v>
       </c>
@@ -9543,14 +10761,14 @@
       <c r="S59">
         <v>1.42</v>
       </c>
-      <c r="T59" s="10">
+      <c r="T59" s="5">
         <f t="shared" si="0"/>
         <v>1.4285714285714299</v>
       </c>
       <c r="U59">
         <v>1.39</v>
       </c>
-      <c r="V59" s="10">
+      <c r="V59" s="5">
         <f t="shared" si="1"/>
         <v>-0.71428571428571497</v>
       </c>
@@ -9613,14 +10831,14 @@
       <c r="S60">
         <v>70.28</v>
       </c>
-      <c r="T60" s="10">
+      <c r="T60" s="5">
         <f t="shared" si="0"/>
         <v>-37.289194253591504</v>
       </c>
       <c r="U60">
         <v>64.16</v>
       </c>
-      <c r="V60" s="10">
+      <c r="V60" s="5">
         <f t="shared" si="1"/>
         <v>-42.750066922459176</v>
       </c>
@@ -9683,14 +10901,14 @@
       <c r="S61">
         <v>13.98</v>
       </c>
-      <c r="T61" s="10">
+      <c r="T61" s="5">
         <f t="shared" si="0"/>
         <v>5.6689342403628116</v>
       </c>
       <c r="U61">
         <v>12.28</v>
       </c>
-      <c r="V61" s="10">
+      <c r="V61" s="5">
         <f t="shared" si="1"/>
         <v>-7.180650037792903</v>
       </c>
@@ -9753,14 +10971,14 @@
       <c r="S62">
         <v>25.72</v>
       </c>
-      <c r="T62" s="10">
+      <c r="T62" s="5">
         <f t="shared" si="0"/>
         <v>39.403794037940379</v>
       </c>
       <c r="U62">
         <v>16.27</v>
       </c>
-      <c r="V62" s="10">
+      <c r="V62" s="5">
         <f t="shared" si="1"/>
         <v>-11.815718157181571</v>
       </c>
@@ -9823,14 +11041,14 @@
       <c r="S63">
         <v>29.03</v>
       </c>
-      <c r="T63" s="10">
+      <c r="T63" s="5">
         <f t="shared" si="0"/>
         <v>1.149825783972132</v>
       </c>
       <c r="U63">
         <v>20.54</v>
       </c>
-      <c r="V63" s="10">
+      <c r="V63" s="5">
         <f t="shared" si="1"/>
         <v>-28.432055749128921</v>
       </c>
@@ -9893,14 +11111,14 @@
       <c r="S64">
         <v>7.27</v>
       </c>
-      <c r="T64" s="10">
+      <c r="T64" s="5">
         <f t="shared" si="0"/>
         <v>-42.52964426877471</v>
       </c>
       <c r="U64">
         <v>10.15</v>
       </c>
-      <c r="V64" s="10">
+      <c r="V64" s="5">
         <f t="shared" si="1"/>
         <v>-19.762845849802371</v>
       </c>
@@ -9963,14 +11181,14 @@
       <c r="S65">
         <v>6.6</v>
       </c>
-      <c r="T65" s="10">
+      <c r="T65" s="5">
         <f t="shared" si="0"/>
         <v>-4.8991354466858894</v>
       </c>
       <c r="U65">
         <v>7.71</v>
       </c>
-      <c r="V65" s="10">
+      <c r="V65" s="5">
         <f t="shared" si="1"/>
         <v>11.095100864553308</v>
       </c>
@@ -10033,14 +11251,14 @@
       <c r="S66">
         <v>15.02</v>
       </c>
-      <c r="T66" s="10">
+      <c r="T66" s="5">
         <f t="shared" si="0"/>
         <v>-13.727742676622634</v>
       </c>
       <c r="U66">
         <v>16.18</v>
       </c>
-      <c r="V66" s="10">
+      <c r="V66" s="5">
         <f t="shared" si="1"/>
         <v>-7.0649052268811046</v>
       </c>
@@ -10103,14 +11321,14 @@
       <c r="S67">
         <v>110.59</v>
       </c>
-      <c r="T67" s="10">
+      <c r="T67" s="5">
         <f t="shared" si="0"/>
         <v>-18.600029442072728</v>
       </c>
       <c r="U67">
         <v>142.75</v>
       </c>
-      <c r="V67" s="10">
+      <c r="V67" s="5">
         <f t="shared" si="1"/>
         <v>5.0713970263506445</v>
       </c>
@@ -10173,14 +11391,14 @@
       <c r="S68">
         <v>15.21</v>
       </c>
-      <c r="T68" s="10">
+      <c r="T68" s="5">
         <f t="shared" ref="T68:T127" si="2">(S68-R68)/R68*100</f>
         <v>5.6250000000000036</v>
       </c>
       <c r="U68">
         <v>12.29</v>
       </c>
-      <c r="V68" s="10">
+      <c r="V68" s="5">
         <f t="shared" ref="V68:V127" si="3">(U68-R68)/R68*100</f>
         <v>-14.652777777777787</v>
       </c>
@@ -10243,14 +11461,14 @@
       <c r="S69">
         <v>11.17</v>
       </c>
-      <c r="T69" s="10">
+      <c r="T69" s="5">
         <f t="shared" si="2"/>
         <v>5.5765595463137982</v>
       </c>
       <c r="U69">
         <v>12.51</v>
       </c>
-      <c r="V69" s="10">
+      <c r="V69" s="5">
         <f t="shared" si="3"/>
         <v>18.241965973534967</v>
       </c>
@@ -10313,14 +11531,14 @@
       <c r="S70">
         <v>7.77</v>
       </c>
-      <c r="T70" s="10">
+      <c r="T70" s="5">
         <f t="shared" si="2"/>
         <v>-5.359317904993925</v>
       </c>
       <c r="U70">
         <v>8.49</v>
       </c>
-      <c r="V70" s="10">
+      <c r="V70" s="5">
         <f t="shared" si="3"/>
         <v>3.4104750304506619</v>
       </c>
@@ -10383,14 +11601,14 @@
       <c r="S71">
         <v>1802.33</v>
       </c>
-      <c r="T71" s="10">
+      <c r="T71" s="5">
         <f t="shared" si="2"/>
         <v>-0.21370952114673028</v>
       </c>
       <c r="U71">
         <v>1807.46</v>
       </c>
-      <c r="V71" s="10">
+      <c r="V71" s="5">
         <f t="shared" si="3"/>
         <v>7.0313754366926065E-2</v>
       </c>
@@ -10453,14 +11671,14 @@
       <c r="S72">
         <v>1681.54</v>
       </c>
-      <c r="T72" s="10">
+      <c r="T72" s="5">
         <f t="shared" si="2"/>
         <v>-7.1649404853918668</v>
       </c>
       <c r="U72">
         <v>1227.6099999999999</v>
       </c>
-      <c r="V72" s="10">
+      <c r="V72" s="5">
         <f t="shared" si="3"/>
         <v>-32.225669677362369</v>
       </c>
@@ -10523,14 +11741,14 @@
       <c r="S73">
         <v>1802.1</v>
       </c>
-      <c r="T73" s="10">
+      <c r="T73" s="5">
         <f t="shared" si="2"/>
         <v>-0.32632743362832362</v>
       </c>
       <c r="U73">
         <v>1808.87</v>
       </c>
-      <c r="V73" s="10">
+      <c r="V73" s="5">
         <f t="shared" si="3"/>
         <v>4.8119469026542634E-2</v>
       </c>
@@ -10593,14 +11811,14 @@
       <c r="S74">
         <v>91.62</v>
       </c>
-      <c r="T74" s="10">
+      <c r="T74" s="5">
         <f t="shared" si="2"/>
         <v>-7.799134547650195</v>
       </c>
       <c r="U74">
         <v>123</v>
       </c>
-      <c r="V74" s="10">
+      <c r="V74" s="5">
         <f t="shared" si="3"/>
         <v>23.77981282077085</v>
       </c>
@@ -10663,14 +11881,14 @@
       <c r="S75">
         <v>40.31</v>
       </c>
-      <c r="T75" s="10">
+      <c r="T75" s="5">
         <f t="shared" si="2"/>
         <v>-33.349867724867714</v>
       </c>
       <c r="U75">
         <v>43.63</v>
       </c>
-      <c r="V75" s="10">
+      <c r="V75" s="5">
         <f t="shared" si="3"/>
         <v>-27.860449735449727</v>
       </c>
@@ -10733,14 +11951,14 @@
       <c r="S76">
         <v>1803.47</v>
       </c>
-      <c r="T76" s="10">
+      <c r="T76" s="5">
         <f t="shared" si="2"/>
         <v>-4.0461146214389655E-2</v>
       </c>
       <c r="U76">
         <v>1804.22</v>
       </c>
-      <c r="V76" s="10">
+      <c r="V76" s="5">
         <f t="shared" si="3"/>
         <v>1.1085245538178588E-3</v>
       </c>
@@ -10803,14 +12021,14 @@
       <c r="S77">
         <v>1801.43</v>
       </c>
-      <c r="T77" s="10">
+      <c r="T77" s="5">
         <f t="shared" si="2"/>
         <v>-0.33747710964686112</v>
       </c>
       <c r="U77">
         <v>1806.56</v>
       </c>
-      <c r="V77" s="10">
+      <c r="V77" s="5">
         <f t="shared" si="3"/>
         <v>-5.3664392845486783E-2</v>
       </c>
@@ -10873,14 +12091,14 @@
       <c r="S78">
         <v>233.38</v>
       </c>
-      <c r="T78" s="10">
+      <c r="T78" s="5">
         <f t="shared" si="2"/>
         <v>-56.466264992818374</v>
       </c>
       <c r="U78">
         <v>375.3</v>
       </c>
-      <c r="V78" s="10">
+      <c r="V78" s="5">
         <f t="shared" si="3"/>
         <v>-29.993098173814097</v>
       </c>
@@ -10943,14 +12161,14 @@
       <c r="S79">
         <v>1801.6</v>
       </c>
-      <c r="T79" s="10">
+      <c r="T79" s="5">
         <f t="shared" si="2"/>
         <v>48.071438551503633</v>
       </c>
       <c r="U79">
         <v>1269.74</v>
       </c>
-      <c r="V79" s="10">
+      <c r="V79" s="5">
         <f t="shared" si="3"/>
         <v>4.3584749036335673</v>
       </c>
@@ -11013,14 +12231,14 @@
       <c r="S80">
         <v>536.61</v>
       </c>
-      <c r="T80" s="10">
+      <c r="T80" s="5">
         <f t="shared" si="2"/>
         <v>-16.966855445176858</v>
       </c>
       <c r="U80">
         <v>1803.41</v>
       </c>
-      <c r="V80" s="10">
+      <c r="V80" s="5">
         <f t="shared" si="3"/>
         <v>179.05332219230652</v>
       </c>
@@ -11083,14 +12301,14 @@
       <c r="S81">
         <v>1008.96</v>
       </c>
-      <c r="T81" s="10">
+      <c r="T81" s="5">
         <f t="shared" si="2"/>
         <v>-44.07157348588153</v>
       </c>
       <c r="U81">
         <v>1802.02</v>
       </c>
-      <c r="V81" s="10">
+      <c r="V81" s="5">
         <f t="shared" si="3"/>
         <v>-0.11086351592554405</v>
       </c>
@@ -11153,14 +12371,14 @@
       <c r="S82">
         <v>919.01</v>
       </c>
-      <c r="T82" s="10">
+      <c r="T82" s="5">
         <f t="shared" si="2"/>
         <v>16.553158568910192</v>
       </c>
       <c r="U82">
         <v>514.39</v>
       </c>
-      <c r="V82" s="10">
+      <c r="V82" s="5">
         <f t="shared" si="3"/>
         <v>-34.762647592233257</v>
       </c>
@@ -11223,14 +12441,14 @@
       <c r="S83">
         <v>79.53</v>
       </c>
-      <c r="T83" s="10">
+      <c r="T83" s="5">
         <f t="shared" si="2"/>
         <v>-17.104440275171978</v>
       </c>
       <c r="U83">
         <v>111.68</v>
       </c>
-      <c r="V83" s="10">
+      <c r="V83" s="5">
         <f t="shared" si="3"/>
         <v>16.406087137794465</v>
       </c>
@@ -11293,14 +12511,14 @@
       <c r="S84">
         <v>1608.75</v>
       </c>
-      <c r="T84" s="10">
+      <c r="T84" s="5">
         <f t="shared" si="2"/>
         <v>-10.785585945298463</v>
       </c>
       <c r="U84">
         <v>1540.58</v>
       </c>
-      <c r="V84" s="10">
+      <c r="V84" s="5">
         <f t="shared" si="3"/>
         <v>-14.566003416073295</v>
       </c>
@@ -11363,14 +12581,14 @@
       <c r="S85">
         <v>218.87</v>
       </c>
-      <c r="T85" s="10">
+      <c r="T85" s="5">
         <f t="shared" si="2"/>
         <v>-17.77986476333583</v>
       </c>
       <c r="U85">
         <v>178.55</v>
       </c>
-      <c r="V85" s="10">
+      <c r="V85" s="5">
         <f t="shared" si="3"/>
         <v>-32.926371149511638</v>
       </c>
@@ -11433,14 +12651,14 @@
       <c r="S86">
         <v>1802.53</v>
       </c>
-      <c r="T86" s="10">
+      <c r="T86" s="5">
         <f t="shared" si="2"/>
         <v>-0.3593085797361017</v>
       </c>
       <c r="U86">
         <v>1224.43</v>
       </c>
-      <c r="V86" s="10">
+      <c r="V86" s="5">
         <f t="shared" si="3"/>
         <v>-32.315660879034617</v>
       </c>
@@ -11503,14 +12721,14 @@
       <c r="S87">
         <v>326.24</v>
       </c>
-      <c r="T87" s="10">
+      <c r="T87" s="5">
         <f t="shared" si="2"/>
         <v>22.205573868744395</v>
       </c>
       <c r="U87">
         <v>261.42</v>
       </c>
-      <c r="V87" s="10">
+      <c r="V87" s="5">
         <f t="shared" si="3"/>
         <v>-2.0752172610128725</v>
       </c>
@@ -11573,14 +12791,14 @@
       <c r="S88">
         <v>1806.73</v>
       </c>
-      <c r="T88" s="10">
+      <c r="T88" s="5">
         <f t="shared" si="2"/>
         <v>184.49752779264955</v>
       </c>
       <c r="U88">
         <v>1530.88</v>
       </c>
-      <c r="V88" s="10">
+      <c r="V88" s="5">
         <f t="shared" si="3"/>
         <v>141.0606871791642</v>
       </c>
@@ -11643,14 +12861,14 @@
       <c r="S89">
         <v>1806.95</v>
       </c>
-      <c r="T89" s="10">
+      <c r="T89" s="5">
         <f t="shared" si="2"/>
         <v>23.864656809317193</v>
       </c>
       <c r="U89">
         <v>1293.8599999999999</v>
       </c>
-      <c r="V89" s="10">
+      <c r="V89" s="5">
         <f t="shared" si="3"/>
         <v>-11.307161316415439</v>
       </c>
@@ -11713,14 +12931,14 @@
       <c r="S90">
         <v>1809.45</v>
       </c>
-      <c r="T90" s="10">
+      <c r="T90" s="5">
         <f t="shared" si="2"/>
         <v>4.2572483800339574E-2</v>
       </c>
       <c r="U90">
         <v>1809.59</v>
       </c>
-      <c r="V90" s="10">
+      <c r="V90" s="5">
         <f t="shared" si="3"/>
         <v>5.0312935400394457E-2</v>
       </c>
@@ -11783,14 +13001,14 @@
       <c r="S91">
         <v>155.72</v>
       </c>
-      <c r="T91" s="10">
+      <c r="T91" s="5">
         <f t="shared" si="2"/>
         <v>-9.9103268730112806</v>
       </c>
       <c r="U91">
         <v>164.38</v>
       </c>
-      <c r="V91" s="10">
+      <c r="V91" s="5">
         <f t="shared" si="3"/>
         <v>-4.9002024877061032</v>
       </c>
@@ -11853,14 +13071,14 @@
       <c r="S92">
         <v>1803.51</v>
       </c>
-      <c r="T92" s="10">
+      <c r="T92" s="5">
         <f t="shared" si="2"/>
         <v>-8.0887770987885466E-2</v>
       </c>
       <c r="U92">
         <v>1805.04</v>
       </c>
-      <c r="V92" s="10">
+      <c r="V92" s="5">
         <f t="shared" si="3"/>
         <v>3.8781808007854052E-3</v>
       </c>
@@ -11923,14 +13141,14 @@
       <c r="S93">
         <v>1007.48</v>
       </c>
-      <c r="T93" s="10">
+      <c r="T93" s="5">
         <f t="shared" si="2"/>
         <v>17.890450391415762</v>
       </c>
       <c r="U93">
         <v>883.76</v>
       </c>
-      <c r="V93" s="10">
+      <c r="V93" s="5">
         <f t="shared" si="3"/>
         <v>3.4133327092523849</v>
       </c>
@@ -11993,14 +13211,14 @@
       <c r="S94">
         <v>1813.67</v>
       </c>
-      <c r="T94" s="10">
+      <c r="T94" s="5">
         <f t="shared" si="2"/>
         <v>46.06934321266057</v>
       </c>
       <c r="U94">
         <v>1268.58</v>
       </c>
-      <c r="V94" s="10">
+      <c r="V94" s="5">
         <f t="shared" si="3"/>
         <v>2.1688881729955973</v>
       </c>
@@ -12063,14 +13281,14 @@
       <c r="S95">
         <v>1804.36</v>
       </c>
-      <c r="T95" s="10">
+      <c r="T95" s="5">
         <f t="shared" si="2"/>
         <v>29.252148997134665</v>
       </c>
       <c r="U95">
         <v>1804.48</v>
       </c>
-      <c r="V95" s="10">
+      <c r="V95" s="5">
         <f t="shared" si="3"/>
         <v>29.260744985673355</v>
       </c>
@@ -12133,14 +13351,14 @@
       <c r="S96">
         <v>177.64</v>
       </c>
-      <c r="T96" s="10">
+      <c r="T96" s="5">
         <f t="shared" si="2"/>
         <v>-50.449093444909344</v>
       </c>
       <c r="U96">
         <v>251.45</v>
       </c>
-      <c r="V96" s="10">
+      <c r="V96" s="5">
         <f t="shared" si="3"/>
         <v>-29.860529986053002</v>
       </c>
@@ -12203,14 +13421,14 @@
       <c r="S97">
         <v>245.76</v>
       </c>
-      <c r="T97" s="10">
+      <c r="T97" s="5">
         <f t="shared" si="2"/>
         <v>51.320731482051599</v>
       </c>
       <c r="U97">
         <v>185.07</v>
       </c>
-      <c r="V97" s="10">
+      <c r="V97" s="5">
         <f t="shared" si="3"/>
         <v>13.952342836032262</v>
       </c>
@@ -12273,14 +13491,14 @@
       <c r="S98">
         <v>985.83</v>
       </c>
-      <c r="T98" s="10">
+      <c r="T98" s="5">
         <f t="shared" si="2"/>
         <v>-45.625579137801694</v>
       </c>
       <c r="U98">
         <v>1816.31</v>
       </c>
-      <c r="V98" s="10">
+      <c r="V98" s="5">
         <f t="shared" si="3"/>
         <v>0.18036005824471507</v>
       </c>
@@ -12343,14 +13561,14 @@
       <c r="S99">
         <v>868.58</v>
       </c>
-      <c r="T99" s="10">
+      <c r="T99" s="5">
         <f t="shared" si="2"/>
         <v>-46.744901838158654</v>
       </c>
       <c r="U99">
         <v>1813.69</v>
       </c>
-      <c r="V99" s="10">
+      <c r="V99" s="5">
         <f t="shared" si="3"/>
         <v>11.202467228292194</v>
       </c>
@@ -12413,14 +13631,14 @@
       <c r="S100">
         <v>1808.32</v>
       </c>
-      <c r="T100" s="10">
+      <c r="T100" s="5">
         <f t="shared" si="2"/>
         <v>-7.9568561577228733E-2</v>
       </c>
       <c r="U100">
         <v>1811.88</v>
       </c>
-      <c r="V100" s="10">
+      <c r="V100" s="5">
         <f t="shared" si="3"/>
         <v>0.1171426045442555</v>
       </c>
@@ -12483,14 +13701,14 @@
       <c r="S101">
         <v>663.83</v>
       </c>
-      <c r="T101" s="10">
+      <c r="T101" s="5">
         <f t="shared" si="2"/>
         <v>-49.772632693981009</v>
       </c>
       <c r="U101">
         <v>998.95</v>
       </c>
-      <c r="V101" s="10">
+      <c r="V101" s="5">
         <f t="shared" si="3"/>
         <v>-24.416449135550263</v>
       </c>
@@ -12553,14 +13771,14 @@
       <c r="S102">
         <v>1545.01</v>
       </c>
-      <c r="T102" s="10">
+      <c r="T102" s="5">
         <f t="shared" si="2"/>
         <v>-14.389649249182693</v>
       </c>
       <c r="U102">
         <v>1804.58</v>
       </c>
-      <c r="V102" s="10">
+      <c r="V102" s="5">
         <f t="shared" si="3"/>
         <v>-6.6493045935678077E-3</v>
       </c>
@@ -12623,14 +13841,14 @@
       <c r="S103">
         <v>204.49</v>
       </c>
-      <c r="T103" s="10">
+      <c r="T103" s="5">
         <f t="shared" si="2"/>
         <v>-40.909090909090907</v>
       </c>
       <c r="U103">
         <v>250.47</v>
       </c>
-      <c r="V103" s="10">
+      <c r="V103" s="5">
         <f t="shared" si="3"/>
         <v>-27.622377622377627</v>
       </c>
@@ -12693,14 +13911,14 @@
       <c r="S104">
         <v>1804.89</v>
       </c>
-      <c r="T104" s="10">
+      <c r="T104" s="5">
         <f t="shared" si="2"/>
         <v>-1.3849341325326567E-2</v>
       </c>
       <c r="U104">
         <v>1807.82</v>
       </c>
-      <c r="V104" s="10">
+      <c r="V104" s="5">
         <f t="shared" si="3"/>
         <v>0.14846493900749172</v>
       </c>
@@ -12763,14 +13981,14 @@
       <c r="S105">
         <v>171.91</v>
       </c>
-      <c r="T105" s="10">
+      <c r="T105" s="5">
         <f t="shared" si="2"/>
         <v>-37.047751574630148</v>
       </c>
       <c r="U105">
         <v>92.53</v>
       </c>
-      <c r="V105" s="10">
+      <c r="V105" s="5">
         <f t="shared" si="3"/>
         <v>-66.116156437673936</v>
       </c>
@@ -12833,14 +14051,14 @@
       <c r="S106">
         <v>1825.53</v>
       </c>
-      <c r="T106" s="10">
+      <c r="T106" s="5">
         <f t="shared" si="2"/>
         <v>-0.55834577127978302</v>
       </c>
       <c r="U106">
         <v>1846.14</v>
       </c>
-      <c r="V106" s="10">
+      <c r="V106" s="5">
         <f t="shared" si="3"/>
         <v>0.56433777467889001</v>
       </c>
@@ -12903,14 +14121,14 @@
       <c r="S107">
         <v>1803.61</v>
       </c>
-      <c r="T107" s="10">
+      <c r="T107" s="5">
         <f t="shared" si="2"/>
         <v>-7.257939410057912E-2</v>
       </c>
       <c r="U107">
         <v>1804.9</v>
       </c>
-      <c r="V107" s="10">
+      <c r="V107" s="5">
         <f t="shared" si="3"/>
         <v>-1.1080823526794434E-3</v>
       </c>
@@ -12973,14 +14191,14 @@
       <c r="S108">
         <v>1806.26</v>
       </c>
-      <c r="T108" s="10">
+      <c r="T108" s="5">
         <f t="shared" si="2"/>
         <v>8.3051419902492613E-3</v>
       </c>
       <c r="U108">
         <v>1806.76</v>
       </c>
-      <c r="V108" s="10">
+      <c r="V108" s="5">
         <f t="shared" si="3"/>
         <v>3.5988948624396687E-2</v>
       </c>
@@ -13043,14 +14261,14 @@
       <c r="S109">
         <v>1815.2</v>
       </c>
-      <c r="T109" s="10">
+      <c r="T109" s="5">
         <f t="shared" si="2"/>
         <v>3.747547560787777E-2</v>
       </c>
       <c r="U109">
         <v>1816.99</v>
       </c>
-      <c r="V109" s="10">
+      <c r="V109" s="5">
         <f t="shared" si="3"/>
         <v>0.13612415404625067</v>
       </c>
@@ -13113,14 +14331,14 @@
       <c r="S110">
         <v>785.29</v>
       </c>
-      <c r="T110" s="10">
+      <c r="T110" s="5">
         <f t="shared" si="2"/>
         <v>-48.346039242512944</v>
       </c>
       <c r="U110">
         <v>1539.14</v>
       </c>
-      <c r="V110" s="10">
+      <c r="V110" s="5">
         <f t="shared" si="3"/>
         <v>1.2398950200290824</v>
       </c>
@@ -13183,14 +14401,14 @@
       <c r="S111">
         <v>1811.21</v>
       </c>
-      <c r="T111" s="10">
+      <c r="T111" s="5">
         <f t="shared" si="2"/>
         <v>13.47722573773574</v>
       </c>
       <c r="U111">
         <v>1813.26</v>
       </c>
-      <c r="V111" s="10">
+      <c r="V111" s="5">
         <f t="shared" si="3"/>
         <v>13.605663805525975</v>
       </c>
@@ -13253,14 +14471,14 @@
       <c r="S112">
         <v>1805.92</v>
       </c>
-      <c r="T112" s="10">
+      <c r="T112" s="5">
         <f t="shared" si="2"/>
         <v>-0.4317022742935866</v>
       </c>
       <c r="U112">
         <v>1811.36</v>
       </c>
-      <c r="V112" s="10">
+      <c r="V112" s="5">
         <f t="shared" si="3"/>
         <v>-0.13177119228119089</v>
       </c>
@@ -13323,14 +14541,14 @@
       <c r="S113">
         <v>1525.95</v>
       </c>
-      <c r="T113" s="10">
+      <c r="T113" s="5">
         <f t="shared" si="2"/>
         <v>-15.818479717988183</v>
       </c>
       <c r="U113">
         <v>1815.24</v>
       </c>
-      <c r="V113" s="10">
+      <c r="V113" s="5">
         <f t="shared" si="3"/>
         <v>0.14067490856130693</v>
       </c>
@@ -13393,14 +14611,14 @@
       <c r="S114">
         <v>1807.23</v>
       </c>
-      <c r="T114" s="10">
+      <c r="T114" s="5">
         <f t="shared" si="2"/>
         <v>-5.5330238528607982E-3</v>
       </c>
       <c r="U114">
         <v>1807.13</v>
       </c>
-      <c r="V114" s="10">
+      <c r="V114" s="5">
         <f t="shared" si="3"/>
         <v>-1.1066047705721596E-2</v>
       </c>
@@ -13463,14 +14681,14 @@
       <c r="S115">
         <v>1332.72</v>
       </c>
-      <c r="T115" s="10">
+      <c r="T115" s="5">
         <f t="shared" si="2"/>
         <v>143.46364632809647</v>
       </c>
       <c r="U115">
         <v>1309.1600000000001</v>
       </c>
-      <c r="V115" s="10">
+      <c r="V115" s="5">
         <f t="shared" si="3"/>
         <v>139.15966386554624</v>
       </c>
@@ -13533,14 +14751,14 @@
       <c r="S116">
         <v>1819.18</v>
       </c>
-      <c r="T116" s="10">
+      <c r="T116" s="5">
         <f t="shared" si="2"/>
         <v>9.3457430140610961E-3</v>
       </c>
       <c r="U116">
         <v>1817.15</v>
       </c>
-      <c r="V116" s="10">
+      <c r="V116" s="5">
         <f t="shared" si="3"/>
         <v>-0.10225342356556039</v>
       </c>
@@ -13576,14 +14794,14 @@
       <c r="S117">
         <v>1826.14</v>
       </c>
-      <c r="T117" s="10">
+      <c r="T117" s="5">
         <f t="shared" si="2"/>
         <v>-4.5430412103095681E-2</v>
       </c>
       <c r="U117">
         <v>1826.49</v>
       </c>
-      <c r="V117" s="10">
+      <c r="V117" s="5">
         <f t="shared" si="3"/>
         <v>-2.6273009409022489E-2</v>
       </c>
@@ -13619,14 +14837,14 @@
       <c r="S118">
         <v>1273.1199999999999</v>
       </c>
-      <c r="T118" s="10">
+      <c r="T118" s="5">
         <f t="shared" si="2"/>
         <v>-29.945579503997628</v>
       </c>
       <c r="U118">
         <v>1317.9</v>
       </c>
-      <c r="V118" s="10">
+      <c r="V118" s="5">
         <f t="shared" si="3"/>
         <v>-27.481525094506772</v>
       </c>
@@ -13662,14 +14880,14 @@
       <c r="S119">
         <v>1804.22</v>
       </c>
-      <c r="T119" s="10">
+      <c r="T119" s="5">
         <f t="shared" si="2"/>
         <v>-0.34741592148068579</v>
       </c>
       <c r="U119">
         <v>1810.02</v>
       </c>
-      <c r="V119" s="10">
+      <c r="V119" s="5">
         <f t="shared" si="3"/>
         <v>-2.7064197380848993E-2</v>
       </c>
@@ -13705,14 +14923,14 @@
       <c r="S120">
         <v>1805.28</v>
       </c>
-      <c r="T120" s="10">
+      <c r="T120" s="5">
         <f t="shared" si="2"/>
         <v>-0.25526272169733788</v>
       </c>
       <c r="U120">
         <v>1808.47</v>
       </c>
-      <c r="V120" s="10">
+      <c r="V120" s="5">
         <f t="shared" si="3"/>
         <v>-7.9009890049177509E-2</v>
       </c>
@@ -13748,14 +14966,14 @@
       <c r="S121">
         <v>1332.02</v>
       </c>
-      <c r="T121" s="10">
+      <c r="T121" s="5">
         <f t="shared" si="2"/>
         <v>-26.222271455869734</v>
       </c>
       <c r="U121">
         <v>1805.42</v>
       </c>
-      <c r="V121" s="10">
+      <c r="V121" s="5">
         <f t="shared" si="3"/>
         <v>-1.6616356033106823E-3</v>
       </c>
@@ -13791,14 +15009,14 @@
       <c r="S122">
         <v>1815.13</v>
       </c>
-      <c r="T122" s="10">
+      <c r="T122" s="5">
         <f t="shared" si="2"/>
         <v>0.11914151916469007</v>
       </c>
       <c r="U122">
         <v>1812.84</v>
       </c>
-      <c r="V122" s="10">
+      <c r="V122" s="5">
         <f t="shared" si="3"/>
         <v>-7.1705543941769099E-3</v>
       </c>
@@ -13834,14 +15052,14 @@
       <c r="S123">
         <v>1820.32</v>
       </c>
-      <c r="T123" s="10">
+      <c r="T123" s="5">
         <f t="shared" si="2"/>
         <v>-4.7222130706472028E-2</v>
       </c>
       <c r="U123">
         <v>1818.88</v>
       </c>
-      <c r="V123" s="10">
+      <c r="V123" s="5">
         <f t="shared" si="3"/>
         <v>-0.12629174491263656</v>
       </c>
@@ -13877,14 +15095,14 @@
       <c r="S124">
         <v>1813.18</v>
       </c>
-      <c r="T124" s="10">
+      <c r="T124" s="5">
         <f t="shared" si="2"/>
         <v>-2.5363357667455302E-2</v>
       </c>
       <c r="U124">
         <v>1813.8</v>
       </c>
-      <c r="V124" s="10">
+      <c r="V124" s="5">
         <f t="shared" si="3"/>
         <v>8.8220374495409492E-3</v>
       </c>
@@ -13920,14 +15138,14 @@
       <c r="S125">
         <v>1816.58</v>
       </c>
-      <c r="T125" s="10">
+      <c r="T125" s="5">
         <f t="shared" si="2"/>
         <v>3.524345518023022E-2</v>
       </c>
       <c r="U125">
         <v>1815.88</v>
       </c>
-      <c r="V125" s="10">
+      <c r="V125" s="5">
         <f t="shared" si="3"/>
         <v>-3.3040739231442349E-3</v>
       </c>
@@ -13963,14 +15181,14 @@
       <c r="S126">
         <v>1812.46</v>
       </c>
-      <c r="T126" s="10">
+      <c r="T126" s="5">
         <f t="shared" si="2"/>
         <v>-2.1513087127995847E-2</v>
       </c>
       <c r="U126">
         <v>1812.78</v>
       </c>
-      <c r="V126" s="10">
+      <c r="V126" s="5">
         <f t="shared" si="3"/>
         <v>-3.8613233306636695E-3</v>
       </c>
@@ -14006,14 +15224,14 @@
       <c r="S127">
         <v>1813.8</v>
       </c>
-      <c r="T127" s="10">
+      <c r="T127" s="5">
         <f t="shared" si="2"/>
         <v>-0.10574317626066093</v>
       </c>
       <c r="U127">
         <v>1816.05</v>
       </c>
-      <c r="V127" s="10">
+      <c r="V127" s="5">
         <f t="shared" si="3"/>
         <v>1.8174608419796401E-2</v>
       </c>
@@ -14049,14 +15267,14 @@
       <c r="S128">
         <v>1840.71</v>
       </c>
-      <c r="T128" s="10">
+      <c r="T128" s="5">
         <f t="shared" ref="T128:T134" si="4">(S128-R128)/R128*100</f>
         <v>0.22705740141788761</v>
       </c>
       <c r="U128">
         <v>1826.21</v>
       </c>
-      <c r="V128" s="10">
+      <c r="V128" s="5">
         <f t="shared" ref="V128:V134" si="5">(U128-R128)/R128*100</f>
         <v>-0.56247073300880612</v>
       </c>
@@ -14092,14 +15310,14 @@
       <c r="S129">
         <v>1812.11</v>
       </c>
-      <c r="T129" s="10">
+      <c r="T129" s="5">
         <f t="shared" si="4"/>
         <v>-1.7655854295071459E-2</v>
       </c>
       <c r="U129">
         <v>1812.42</v>
       </c>
-      <c r="V129" s="10">
+      <c r="V129" s="5">
         <f t="shared" si="5"/>
         <v>-5.517454467201991E-4</v>
       </c>
@@ -14135,14 +15353,14 @@
       <c r="S130">
         <v>1834.23</v>
       </c>
-      <c r="T130" s="10">
+      <c r="T130" s="5">
         <f t="shared" si="4"/>
         <v>-7.7743419564069631</v>
       </c>
       <c r="U130">
         <v>1849.83</v>
       </c>
-      <c r="V130" s="10">
+      <c r="V130" s="5">
         <f t="shared" si="5"/>
         <v>-6.989969077607662</v>
       </c>
@@ -14178,14 +15396,14 @@
       <c r="S131">
         <v>1826.7</v>
       </c>
-      <c r="T131" s="10">
+      <c r="T131" s="5">
         <f t="shared" si="4"/>
         <v>-0.19887015527169119</v>
       </c>
       <c r="U131">
         <v>17.63</v>
       </c>
-      <c r="V131" s="10">
+      <c r="V131" s="5">
         <f t="shared" si="5"/>
         <v>-99.03679097872525</v>
       </c>
@@ -14221,14 +15439,14 @@
       <c r="S132">
         <v>1813.64</v>
       </c>
-      <c r="T132" s="10">
+      <c r="T132" s="5">
         <f t="shared" si="4"/>
         <v>3.088666799039054E-2</v>
       </c>
       <c r="U132">
         <v>1814.48</v>
       </c>
-      <c r="V132" s="10">
+      <c r="V132" s="5">
         <f t="shared" si="5"/>
         <v>7.7216669975957539E-2</v>
       </c>
@@ -14264,14 +15482,14 @@
       <c r="S133">
         <v>1818.96</v>
       </c>
-      <c r="T133" s="10">
+      <c r="T133" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U133">
         <v>1818.13</v>
       </c>
-      <c r="V133" s="10">
+      <c r="V133" s="5">
         <f t="shared" si="5"/>
         <v>-4.5630470158768047E-2</v>
       </c>
@@ -14307,14 +15525,14 @@
       <c r="S134">
         <v>1815.84</v>
       </c>
-      <c r="T134" s="10">
+      <c r="T134" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U134">
         <v>1814.48</v>
       </c>
-      <c r="V134" s="10">
+      <c r="V134" s="5">
         <f t="shared" si="5"/>
         <v>-7.4896466649038471E-2</v>
       </c>
